--- a/Code/Results/Cases/Case_5_41/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_41/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,989 +409,1139 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.823802087851703</v>
+        <v>2.588818139385694</v>
       </c>
       <c r="C2">
-        <v>0.37904675619626</v>
+        <v>0.3763918172900276</v>
       </c>
       <c r="D2">
-        <v>0.202289695573981</v>
+        <v>0.006941232934899233</v>
       </c>
       <c r="E2">
-        <v>0.07797784845081779</v>
+        <v>0.02954666203860357</v>
       </c>
       <c r="F2">
-        <v>6.572178042756661</v>
+        <v>2.760370247897882</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.1474055272165167</v>
+        <v>0.07916728382584814</v>
       </c>
       <c r="K2">
-        <v>0.4872333506895004</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.1411902712334978</v>
       </c>
       <c r="M2">
-        <v>0.5749633515090409</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>0.4266226249824783</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>2.088314907934631</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.563251176700248</v>
+        <v>2.268327999321514</v>
       </c>
       <c r="C3">
-        <v>0.3228985495701124</v>
+        <v>0.3267618395159104</v>
       </c>
       <c r="D3">
-        <v>0.1796222878595444</v>
+        <v>0.005892770348497223</v>
       </c>
       <c r="E3">
-        <v>0.06828742305382818</v>
+        <v>0.02951681221323121</v>
       </c>
       <c r="F3">
-        <v>5.79717126994953</v>
+        <v>2.604429415453424</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.1300298957589554</v>
+        <v>0.08043517178922421</v>
       </c>
       <c r="K3">
-        <v>0.4166355472705163</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.1300919313210471</v>
       </c>
       <c r="M3">
-        <v>0.4935209697710974</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>0.3770662898767583</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>1.965736220001091</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.407534997686895</v>
+        <v>2.074882407014798</v>
       </c>
       <c r="C4">
-        <v>0.2894068301839923</v>
+        <v>0.2965710223386964</v>
       </c>
       <c r="D4">
-        <v>0.1660067798074323</v>
+        <v>0.005274224225219726</v>
       </c>
       <c r="E4">
-        <v>0.06250729180464276</v>
+        <v>0.02950501520460469</v>
       </c>
       <c r="F4">
-        <v>5.332321080144538</v>
+        <v>2.51331145836275</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.1196235518457343</v>
+        <v>0.0812412160329492</v>
       </c>
       <c r="K4">
-        <v>0.374462358216114</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.1234638610831311</v>
       </c>
       <c r="M4">
-        <v>0.4448902445341574</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>0.3472040640966085</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>1.894082205378993</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.344998872131384</v>
+        <v>1.99679675151458</v>
       </c>
       <c r="C5">
-        <v>0.2759668372649742</v>
+        <v>0.2843249148838254</v>
       </c>
       <c r="D5">
-        <v>0.1605209603686717</v>
+        <v>0.005027507829742817</v>
       </c>
       <c r="E5">
-        <v>0.0601890038827797</v>
+        <v>0.02950173676303358</v>
       </c>
       <c r="F5">
-        <v>5.145248251865809</v>
+        <v>2.477254585476601</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.11543942352559</v>
+        <v>0.08157657854512124</v>
       </c>
       <c r="K5">
-        <v>0.3575285474324446</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.1208063263212509</v>
       </c>
       <c r="M5">
-        <v>0.42537005303911</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>0.3351625666428646</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>1.865718291887262</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.334666181758706</v>
+        <v>1.983873076891541</v>
       </c>
       <c r="C6">
-        <v>0.2737466471106416</v>
+        <v>0.2822945054913362</v>
       </c>
       <c r="D6">
-        <v>0.1596134593663265</v>
+        <v>0.00498683630196517</v>
       </c>
       <c r="E6">
-        <v>0.05980614734220424</v>
+        <v>0.02950128163280707</v>
       </c>
       <c r="F6">
-        <v>5.114316131260949</v>
+        <v>2.47132976231174</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.1147478097448023</v>
+        <v>0.08163268053535511</v>
       </c>
       <c r="K6">
-        <v>0.3547307550687435</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.1203675750901638</v>
       </c>
       <c r="M6">
-        <v>0.4221453699549258</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>0.3331703868620224</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>1.86105695588823</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.406688080314098</v>
+        <v>2.07382641892832</v>
       </c>
       <c r="C7">
-        <v>0.2892247794771379</v>
+        <v>0.2964056544190896</v>
       </c>
       <c r="D7">
-        <v>0.1659325593584384</v>
+        <v>0.0052708765232925</v>
       </c>
       <c r="E7">
-        <v>0.06247588299824969</v>
+        <v>0.02950496494100074</v>
       </c>
       <c r="F7">
-        <v>5.329789117267865</v>
+        <v>2.512820946299357</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1195669060543523</v>
+        <v>0.08124571098576538</v>
       </c>
       <c r="K7">
-        <v>0.3742330157563885</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.1234278489814358</v>
       </c>
       <c r="M7">
-        <v>0.4446258453704814</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>0.3470411700621341</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>1.893696387316396</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.732982048519972</v>
+        <v>2.477561516582455</v>
       </c>
       <c r="C8">
-        <v>0.3594576929011737</v>
+        <v>0.3592119773330467</v>
       </c>
       <c r="D8">
-        <v>0.1944026776023264</v>
+        <v>0.006573861891427057</v>
       </c>
       <c r="E8">
-        <v>0.07459781329755089</v>
+        <v>0.02953494228704268</v>
       </c>
       <c r="F8">
-        <v>6.302410068330033</v>
+        <v>2.705584478605871</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1413539550179834</v>
+        <v>0.07959871004287322</v>
       </c>
       <c r="K8">
-        <v>0.4626200008829429</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.1373227469765652</v>
       </c>
       <c r="M8">
-        <v>0.5465656032133595</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>0.4094090333028575</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>2.045255413935791</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.414582948943405</v>
+        <v>3.300462011462514</v>
       </c>
       <c r="C9">
-        <v>0.5070319270335233</v>
+        <v>0.4853203931466226</v>
       </c>
       <c r="D9">
-        <v>0.2533235870407538</v>
+        <v>0.009379283055949372</v>
       </c>
       <c r="E9">
-        <v>0.1000026823183262</v>
+        <v>0.02965136411411851</v>
       </c>
       <c r="F9">
-        <v>8.318220643290857</v>
+        <v>3.124791413594352</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.186646485909634</v>
+        <v>0.07658927080493783</v>
       </c>
       <c r="K9">
-        <v>0.6475048968600348</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.1662194150043916</v>
       </c>
       <c r="M9">
-        <v>0.7599016478923843</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>0.5369304634811485</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>2.374677646474311</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.953777272623313</v>
+        <v>3.931384564474172</v>
       </c>
       <c r="C10">
-        <v>0.6248361743857629</v>
+        <v>0.5808750021822959</v>
       </c>
       <c r="D10">
-        <v>0.2996241603108984</v>
+        <v>0.01167246854419091</v>
       </c>
       <c r="E10">
-        <v>0.1201306019219857</v>
+        <v>0.02978141442508975</v>
       </c>
       <c r="F10">
-        <v>9.899854235971446</v>
+        <v>3.464800931151785</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.2222807785731362</v>
+        <v>0.07451503234347889</v>
       </c>
       <c r="K10">
-        <v>0.7940698856254684</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.1887200703656902</v>
       </c>
       <c r="M10">
-        <v>0.9289616444886803</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>0.6349406311250334</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>2.641878176547422</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.21100413680773</v>
+        <v>4.225999084442776</v>
       </c>
       <c r="C11">
-        <v>0.6814107020005906</v>
+        <v>0.6252606143555397</v>
       </c>
       <c r="D11">
-        <v>0.3216507884721551</v>
+        <v>0.01278697947723373</v>
       </c>
       <c r="E11">
-        <v>0.1297332402189006</v>
+        <v>0.02985276965531558</v>
       </c>
       <c r="F11">
-        <v>10.65067771663445</v>
+        <v>3.628188970195851</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.2392209469748536</v>
+        <v>0.07360175814485626</v>
       </c>
       <c r="K11">
-        <v>0.8640982523585237</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.1992995999809892</v>
       </c>
       <c r="M11">
-        <v>1.009690581741957</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>0.6807568572679727</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>2.770310426196247</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.310496632600689</v>
+        <v>4.338833432255853</v>
       </c>
       <c r="C12">
-        <v>0.7033615537561104</v>
+        <v>0.6422274917469792</v>
       </c>
       <c r="D12">
-        <v>0.3301620434651937</v>
+        <v>0.01322132374922802</v>
       </c>
       <c r="E12">
-        <v>0.1334468181820547</v>
+        <v>0.02988179650736444</v>
       </c>
       <c r="F12">
-        <v>10.94046575092841</v>
+        <v>3.691480339510235</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2457629136390409</v>
+        <v>0.07326035109224716</v>
       </c>
       <c r="K12">
-        <v>0.8912042024166738</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.2033616435162742</v>
       </c>
       <c r="M12">
-        <v>1.040928000588046</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>0.6983108883234976</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>2.820068223434689</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.288969711832408</v>
+        <v>4.314472991720265</v>
       </c>
       <c r="C13">
-        <v>0.6986088160822135</v>
+        <v>0.638565829420088</v>
       </c>
       <c r="D13">
-        <v>0.3283208528105774</v>
+        <v>0.01312719693940068</v>
       </c>
       <c r="E13">
-        <v>0.1326433611883395</v>
+        <v>0.02987545136636671</v>
       </c>
       <c r="F13">
-        <v>10.87779426819191</v>
+        <v>3.677783388250589</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2443479342388741</v>
+        <v>0.07333368092624681</v>
       </c>
       <c r="K13">
-        <v>0.8853384121955514</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.2024842181705679</v>
       </c>
       <c r="M13">
-        <v>1.034168676636774</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>0.6945207486307865</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>2.809299723615084</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.219145265229145</v>
+        <v>4.235255486085578</v>
       </c>
       <c r="C14">
-        <v>0.683205410970686</v>
+        <v>0.6266531349037052</v>
       </c>
       <c r="D14">
-        <v>0.3223474001882636</v>
+        <v>0.01282245387796621</v>
       </c>
       <c r="E14">
-        <v>0.1300371261982995</v>
+        <v>0.02985511591212975</v>
       </c>
       <c r="F14">
-        <v>10.67440301907868</v>
+        <v>3.633366505639856</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.2397564697803318</v>
+        <v>0.07357358114780066</v>
       </c>
       <c r="K14">
-        <v>0.8663158195640932</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.1996326291254462</v>
       </c>
       <c r="M14">
-        <v>1.012246378834845</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>0.6821967718374253</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>2.774380692097239</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.176659622327861</v>
+        <v>4.186903516377754</v>
       </c>
       <c r="C15">
-        <v>0.6738422990860897</v>
+        <v>0.6193778377877379</v>
       </c>
       <c r="D15">
-        <v>0.3187116983171734</v>
+        <v>0.01263745800734384</v>
       </c>
       <c r="E15">
-        <v>0.1284512246441238</v>
+        <v>0.02984292931438426</v>
       </c>
       <c r="F15">
-        <v>10.55056365337839</v>
+        <v>3.606350083286657</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.2369613436338867</v>
+        <v>0.07372110619316796</v>
       </c>
       <c r="K15">
-        <v>0.8547439455775674</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.197893417942467</v>
       </c>
       <c r="M15">
-        <v>0.9989090887036269</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>0.6746754735751708</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>2.753142315488716</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.937237197007846</v>
+        <v>3.912298451113543</v>
       </c>
       <c r="C16">
-        <v>0.6212069096926598</v>
+        <v>0.5779949949220224</v>
       </c>
       <c r="D16">
-        <v>0.2982066413308218</v>
+        <v>0.0116012362411162</v>
       </c>
       <c r="E16">
-        <v>0.1195130929186483</v>
+        <v>0.02977701727012705</v>
       </c>
       <c r="F16">
-        <v>9.851494902220395</v>
+        <v>3.454312303751834</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.2211901876319189</v>
+        <v>0.07457533274318262</v>
       </c>
       <c r="K16">
-        <v>0.7895694284295161</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.188036118859273</v>
       </c>
       <c r="M16">
-        <v>0.923772280447885</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0.6319734699583535</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>2.63363436287338</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.793659805622667</v>
+        <v>3.745903914751864</v>
       </c>
       <c r="C17">
-        <v>0.5897452357767463</v>
+        <v>0.5528611235595235</v>
       </c>
       <c r="D17">
-        <v>0.2858951361327513</v>
+        <v>0.01098518271770033</v>
       </c>
       <c r="E17">
-        <v>0.1141527387130452</v>
+        <v>0.02973987318182381</v>
       </c>
       <c r="F17">
-        <v>9.431294630786908</v>
+        <v>3.363386683983208</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.2117165677811315</v>
+        <v>0.0751071836126318</v>
       </c>
       <c r="K17">
-        <v>0.7505151263725409</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.1820813455132964</v>
       </c>
       <c r="M17">
-        <v>0.878734196820119</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0.6061109151865978</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>2.562172740373057</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.71217646749227</v>
+        <v>3.650902189419924</v>
       </c>
       <c r="C18">
-        <v>0.5719233777768693</v>
+        <v>0.5384893156916917</v>
       </c>
       <c r="D18">
-        <v>0.2789024494106798</v>
+        <v>0.0106374203441888</v>
       </c>
       <c r="E18">
-        <v>0.1111107077789875</v>
+        <v>0.02971963940932387</v>
       </c>
       <c r="F18">
-        <v>9.192488695495797</v>
+        <v>3.311897978465424</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.2063347617582032</v>
+        <v>0.07541593799102309</v>
       </c>
       <c r="K18">
-        <v>0.728360583558981</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.1786882607929954</v>
       </c>
       <c r="M18">
-        <v>0.8531811038340322</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0.591349489641253</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>2.521708705135481</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.684766157567083</v>
+        <v>3.618852115603374</v>
       </c>
       <c r="C19">
-        <v>0.5659335889150157</v>
+        <v>0.5336370166207587</v>
       </c>
       <c r="D19">
-        <v>0.276549186400473</v>
+        <v>0.01052074563306249</v>
       </c>
       <c r="E19">
-        <v>0.1100874271683452</v>
+        <v>0.02971297571124365</v>
       </c>
       <c r="F19">
-        <v>9.11210157932527</v>
+        <v>3.294599036232796</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.2045235008713355</v>
+        <v>0.07552096400209152</v>
       </c>
       <c r="K19">
-        <v>0.7209095240989711</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.177544725471158</v>
       </c>
       <c r="M19">
-        <v>0.8445864289243303</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0.5863703278909398</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>2.508114178063309</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.80882771393226</v>
+        <v>3.763542823542878</v>
       </c>
       <c r="C20">
-        <v>0.5930653701162782</v>
+        <v>0.5555277332501589</v>
       </c>
       <c r="D20">
-        <v>0.2871963401876911</v>
+        <v>0.01105006825261867</v>
       </c>
       <c r="E20">
-        <v>0.1147190163562648</v>
+        <v>0.02974370852521613</v>
       </c>
       <c r="F20">
-        <v>9.475720959383779</v>
+        <v>3.372980969130396</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.212717951457158</v>
+        <v>0.0750502719510564</v>
       </c>
       <c r="K20">
-        <v>0.7546398999908206</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.1827118916536108</v>
       </c>
       <c r="M20">
-        <v>0.8834914054008394</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0.6088520384246152</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>2.569712921484196</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.239594482684197</v>
+        <v>4.258487596188274</v>
       </c>
       <c r="C21">
-        <v>0.6877145728090284</v>
+        <v>0.6301476329604441</v>
       </c>
       <c r="D21">
-        <v>0.3240970459603574</v>
+        <v>0.01291161259855045</v>
       </c>
       <c r="E21">
-        <v>0.1308004270074079</v>
+        <v>0.02986103226412018</v>
       </c>
       <c r="F21">
-        <v>10.73398700465964</v>
+        <v>3.646372856318891</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.2411014478662565</v>
+        <v>0.0735029957828468</v>
       </c>
       <c r="K21">
-        <v>0.8718863236407657</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.2004686408610894</v>
       </c>
       <c r="M21">
-        <v>1.018666334218338</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0.6858108391359963</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>2.784605623421442</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3.533512213063545</v>
+        <v>4.589465036964441</v>
       </c>
       <c r="C22">
-        <v>0.7527077387296686</v>
+        <v>0.6798581247210223</v>
       </c>
       <c r="D22">
-        <v>0.3492254121603651</v>
+        <v>0.01420112786736993</v>
       </c>
       <c r="E22">
-        <v>0.141768909424691</v>
+        <v>0.02994955190440174</v>
       </c>
       <c r="F22">
-        <v>11.58879131294123</v>
+        <v>3.833419093909981</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.2604059770645364</v>
+        <v>0.07251762430354258</v>
       </c>
       <c r="K22">
-        <v>0.952004187018872</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.212402514519539</v>
       </c>
       <c r="M22">
-        <v>1.11097157591503</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0.7373146716521291</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>2.931672422057844</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.375367963352289</v>
+        <v>4.412065353290814</v>
       </c>
       <c r="C23">
-        <v>0.717694995818988</v>
+        <v>0.6532305906106615</v>
       </c>
       <c r="D23">
-        <v>0.3357092889027768</v>
+        <v>0.01350546294764143</v>
       </c>
       <c r="E23">
-        <v>0.1358678849199073</v>
+        <v>0.02990112923425658</v>
       </c>
       <c r="F23">
-        <v>11.12922909011849</v>
+        <v>3.732762678046726</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.2500253188983876</v>
+        <v>0.07304114261828154</v>
       </c>
       <c r="K23">
-        <v>0.9088839436981999</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.2060007848861432</v>
       </c>
       <c r="M23">
-        <v>1.061299083509319</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0.7097057061704675</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>2.852525512859273</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.801967023960572</v>
+        <v>3.755566227984446</v>
       </c>
       <c r="C24">
-        <v>0.5915635163531192</v>
+        <v>0.5543219180904089</v>
       </c>
       <c r="D24">
-        <v>0.2866078022470901</v>
+        <v>0.01102071367160207</v>
       </c>
       <c r="E24">
-        <v>0.1144628795029554</v>
+        <v>0.02974197109374654</v>
       </c>
       <c r="F24">
-        <v>9.45562724972811</v>
+        <v>3.368640958033325</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.2122650259657348</v>
+        <v>0.07507599241716356</v>
       </c>
       <c r="K24">
-        <v>0.7527741683681839</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.18242672754414</v>
       </c>
       <c r="M24">
-        <v>0.8813396212260329</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0.6076124444163611</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>2.566302083707669</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.224506126996403</v>
+        <v>3.073798669598659</v>
       </c>
       <c r="C25">
-        <v>0.4657395419365287</v>
+        <v>0.4507826283854968</v>
       </c>
       <c r="D25">
-        <v>0.236946933521736</v>
+        <v>0.008585951877964959</v>
       </c>
       <c r="E25">
-        <v>0.09291114948443635</v>
+        <v>0.02961281087400236</v>
       </c>
       <c r="F25">
-        <v>7.758028306580087</v>
+        <v>3.006305484978313</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.1740441157260761</v>
+        <v>0.07737957919193938</v>
       </c>
       <c r="K25">
-        <v>0.5959061122619644</v>
+        <v>0</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.1581999159579794</v>
       </c>
       <c r="M25">
-        <v>0.7003628546611225</v>
+        <v>0.5017636797780014</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>2.281575250412132</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_41/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_41/res_line/pl_mw.xlsx
@@ -421,19 +421,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.588818139385694</v>
+        <v>1.010117455319914</v>
       </c>
       <c r="C2">
-        <v>0.3763918172900276</v>
+        <v>0.1014805794506373</v>
       </c>
       <c r="D2">
-        <v>0.006941232934899233</v>
+        <v>0.06917053970720843</v>
       </c>
       <c r="E2">
-        <v>0.02954666203860357</v>
+        <v>0.05227447761394011</v>
       </c>
       <c r="F2">
-        <v>2.760370247897882</v>
+        <v>0.9373153583723308</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -445,22 +445,22 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.07916728382584814</v>
+        <v>0.07218003273476903</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.8149854852149474</v>
       </c>
       <c r="L2">
-        <v>0.1411902712334978</v>
+        <v>0.136229541236716</v>
       </c>
       <c r="M2">
-        <v>0.4266226249824783</v>
+        <v>0.2081094107963004</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>1.212304573966389</v>
       </c>
       <c r="O2">
-        <v>2.088314907934631</v>
+        <v>2.471807679623737</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,19 +468,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.268327999321514</v>
+        <v>0.8861460302487671</v>
       </c>
       <c r="C3">
-        <v>0.3267618395159104</v>
+        <v>0.09849797033392349</v>
       </c>
       <c r="D3">
-        <v>0.005892770348497223</v>
+        <v>0.06301489952843298</v>
       </c>
       <c r="E3">
-        <v>0.02951681221323121</v>
+        <v>0.05168905166786608</v>
       </c>
       <c r="F3">
-        <v>2.604429415453424</v>
+        <v>0.9236022268147437</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -492,22 +492,22 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.08043517178922421</v>
+        <v>0.07375582146799697</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.7084008521567142</v>
       </c>
       <c r="L3">
-        <v>0.1300919313210471</v>
+        <v>0.1257582198539282</v>
       </c>
       <c r="M3">
-        <v>0.3770662898767583</v>
+        <v>0.1847298481671587</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>1.261263479168949</v>
       </c>
       <c r="O3">
-        <v>1.965736220001091</v>
+        <v>2.456971130196564</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,19 +515,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.074882407014798</v>
+        <v>0.8104569377185271</v>
       </c>
       <c r="C4">
-        <v>0.2965710223386964</v>
+        <v>0.09666722861830124</v>
       </c>
       <c r="D4">
-        <v>0.005274224225219726</v>
+        <v>0.0592775621793038</v>
       </c>
       <c r="E4">
-        <v>0.02950501520460469</v>
+        <v>0.05137524544897687</v>
       </c>
       <c r="F4">
-        <v>2.51331145836275</v>
+        <v>0.9164731418461045</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -539,22 +539,22 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.0812412160329492</v>
+        <v>0.07477802097108466</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.643133619267175</v>
       </c>
       <c r="L4">
-        <v>0.1234638610831311</v>
+        <v>0.119432973376469</v>
       </c>
       <c r="M4">
-        <v>0.3472040640966085</v>
+        <v>0.1704887016521894</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>1.292549918251718</v>
       </c>
       <c r="O4">
-        <v>1.894082205378993</v>
+        <v>2.451462516073946</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,19 +562,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.99679675151458</v>
+        <v>0.7797097595698972</v>
       </c>
       <c r="C5">
-        <v>0.2843249148838254</v>
+        <v>0.095921130703708</v>
       </c>
       <c r="D5">
-        <v>0.005027507829742817</v>
+        <v>0.05776468619090025</v>
       </c>
       <c r="E5">
-        <v>0.02950173676303358</v>
+        <v>0.05125861588884462</v>
       </c>
       <c r="F5">
-        <v>2.477254585476601</v>
+        <v>0.9138817823450864</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -586,22 +586,22 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.08157657854512124</v>
+        <v>0.07520817872881125</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.6165720776691188</v>
       </c>
       <c r="L5">
-        <v>0.1208063263212509</v>
+        <v>0.1168803588997562</v>
       </c>
       <c r="M5">
-        <v>0.3351625666428646</v>
+        <v>0.1647117148459003</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>1.305602213239251</v>
       </c>
       <c r="O5">
-        <v>1.865718291887262</v>
+        <v>2.450093317160096</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,19 +609,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.983873076891541</v>
+        <v>0.774609736073586</v>
       </c>
       <c r="C6">
-        <v>0.2822945054913362</v>
+        <v>0.09579723262099549</v>
       </c>
       <c r="D6">
-        <v>0.00498683630196517</v>
+        <v>0.05751407117064389</v>
       </c>
       <c r="E6">
-        <v>0.02950128163280707</v>
+        <v>0.05123992253200882</v>
       </c>
       <c r="F6">
-        <v>2.47132976231174</v>
+        <v>0.913470135426742</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -633,22 +633,22 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.08163268053535511</v>
+        <v>0.07528042367652787</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>0.6121634394267375</v>
       </c>
       <c r="L6">
-        <v>0.1203675750901638</v>
+        <v>0.1164579729670976</v>
       </c>
       <c r="M6">
-        <v>0.3331703868620224</v>
+        <v>0.1637539806268826</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>1.307787674742964</v>
       </c>
       <c r="O6">
-        <v>1.86105695588823</v>
+        <v>2.449917997855323</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,19 +656,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.07382641892832</v>
+        <v>0.8100418934094478</v>
       </c>
       <c r="C7">
-        <v>0.2964056544190896</v>
+        <v>0.09665716696799365</v>
       </c>
       <c r="D7">
-        <v>0.0052708765232925</v>
+        <v>0.059257118681451</v>
       </c>
       <c r="E7">
-        <v>0.02950496494100074</v>
+        <v>0.05137362729085382</v>
       </c>
       <c r="F7">
-        <v>2.512820946299357</v>
+        <v>0.9164369372065337</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -680,22 +680,22 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.08124571098576538</v>
+        <v>0.07478376733218983</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>0.6427752691998734</v>
       </c>
       <c r="L7">
-        <v>0.1234278489814358</v>
+        <v>0.1193984483775026</v>
       </c>
       <c r="M7">
-        <v>0.3470411700621341</v>
+        <v>0.1704106872302056</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>1.292724726841842</v>
       </c>
       <c r="O7">
-        <v>1.893696387316396</v>
+        <v>2.451440543829762</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,19 +703,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.477561516582455</v>
+        <v>0.9672758450712706</v>
       </c>
       <c r="C8">
-        <v>0.3592119773330467</v>
+        <v>0.1004519244965039</v>
       </c>
       <c r="D8">
-        <v>0.006573861891427057</v>
+        <v>0.06703899258864965</v>
       </c>
       <c r="E8">
-        <v>0.02953494228704268</v>
+        <v>0.05206300708168321</v>
       </c>
       <c r="F8">
-        <v>2.705584478605871</v>
+        <v>0.9323125085052055</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -727,22 +727,22 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.07959871004287322</v>
+        <v>0.07271193361706985</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>0.7781930039708129</v>
       </c>
       <c r="L8">
-        <v>0.1373227469765652</v>
+        <v>0.1325966474907077</v>
       </c>
       <c r="M8">
-        <v>0.4094090333028575</v>
+        <v>0.2000230689736355</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>1.22892797947269</v>
       </c>
       <c r="O8">
-        <v>2.045255413935791</v>
+        <v>2.465926195983229</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,19 +750,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.300462011462514</v>
+        <v>1.279577042073583</v>
       </c>
       <c r="C9">
-        <v>0.4853203931466226</v>
+        <v>0.1079084327401674</v>
       </c>
       <c r="D9">
-        <v>0.009379283055949372</v>
+        <v>0.08265921182595548</v>
       </c>
       <c r="E9">
-        <v>0.02965136411411851</v>
+        <v>0.05378804849301488</v>
       </c>
       <c r="F9">
-        <v>3.124791413594352</v>
+        <v>0.9741999638631711</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -774,22 +774,22 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.07658927080493783</v>
+        <v>0.06908934451858606</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>1.045581948661408</v>
       </c>
       <c r="L9">
-        <v>0.1662194150043916</v>
+        <v>0.1593644224706452</v>
       </c>
       <c r="M9">
-        <v>0.5369304634811485</v>
+        <v>0.2591082085323322</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>1.1137950888227</v>
       </c>
       <c r="O9">
-        <v>2.374677646474311</v>
+        <v>2.524327035724468</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,19 +797,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.931384564474172</v>
+        <v>1.51227902582167</v>
       </c>
       <c r="C10">
-        <v>0.5808750021822959</v>
+        <v>0.1134118310255303</v>
       </c>
       <c r="D10">
-        <v>0.01167246854419091</v>
+        <v>0.09439217358566765</v>
       </c>
       <c r="E10">
-        <v>0.02978141442508975</v>
+        <v>0.05529912938968806</v>
       </c>
       <c r="F10">
-        <v>3.464800931151785</v>
+        <v>1.012286087218328</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -821,22 +821,22 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.07451503234347889</v>
+        <v>0.06670569885620381</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>1.243812828014626</v>
       </c>
       <c r="L10">
-        <v>0.1887200703656902</v>
+        <v>0.1796600071678469</v>
       </c>
       <c r="M10">
-        <v>0.6349406311250334</v>
+        <v>0.303303761002141</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>1.03564488024821</v>
       </c>
       <c r="O10">
-        <v>2.641878176547422</v>
+        <v>2.587607226127574</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,19 +844,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.225999084442776</v>
+        <v>1.619046510365052</v>
       </c>
       <c r="C11">
-        <v>0.6252606143555397</v>
+        <v>0.1159248174475707</v>
       </c>
       <c r="D11">
-        <v>0.01278697947723373</v>
+        <v>0.09979437697299431</v>
       </c>
       <c r="E11">
-        <v>0.02985276965531558</v>
+        <v>0.05604327569090373</v>
       </c>
       <c r="F11">
-        <v>3.628188970195851</v>
+        <v>1.031377788952739</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -868,22 +868,22 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.07360175814485626</v>
+        <v>0.0656838735345886</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>1.334537245002593</v>
       </c>
       <c r="L11">
-        <v>0.1992995999809892</v>
+        <v>0.1890507197199227</v>
       </c>
       <c r="M11">
-        <v>0.6807568572679727</v>
+        <v>0.323619620602237</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>1.001574653851605</v>
       </c>
       <c r="O11">
-        <v>2.770310426196247</v>
+        <v>2.621311161470913</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,19 +891,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.338833432255853</v>
+        <v>1.65962467100465</v>
       </c>
       <c r="C12">
-        <v>0.6422274917469792</v>
+        <v>0.1168781240086147</v>
       </c>
       <c r="D12">
-        <v>0.01322132374922802</v>
+        <v>0.1018501261872302</v>
       </c>
       <c r="E12">
-        <v>0.02988179650736444</v>
+        <v>0.05633355673469431</v>
       </c>
       <c r="F12">
-        <v>3.691480339510235</v>
+        <v>1.03887701277381</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -915,22 +915,22 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.07326035109224716</v>
+        <v>0.06530612453037321</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>1.368984692650685</v>
       </c>
       <c r="L12">
-        <v>0.2033616435162742</v>
+        <v>0.1926313088923663</v>
       </c>
       <c r="M12">
-        <v>0.6983108883234976</v>
+        <v>0.3313464879818255</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>0.9888937588098035</v>
       </c>
       <c r="O12">
-        <v>2.820068223434689</v>
+        <v>2.634824810244794</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,19 +938,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.314472991720265</v>
+        <v>1.650878593387745</v>
       </c>
       <c r="C13">
-        <v>0.638565829420088</v>
+        <v>0.1166727314826446</v>
       </c>
       <c r="D13">
-        <v>0.01312719693940068</v>
+        <v>0.1014069246180469</v>
       </c>
       <c r="E13">
-        <v>0.02987545136636671</v>
+        <v>0.05627065652560503</v>
       </c>
       <c r="F13">
-        <v>3.677783388250589</v>
+        <v>1.037249670014532</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -962,22 +962,22 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.07333368092624681</v>
+        <v>0.0653870672229413</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>1.361561502405777</v>
       </c>
       <c r="L13">
-        <v>0.2024842181705679</v>
+        <v>0.1918590442457102</v>
       </c>
       <c r="M13">
-        <v>0.6945207486307865</v>
+        <v>0.3296808148213159</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>0.9916148680009584</v>
       </c>
       <c r="O13">
-        <v>2.809299723615084</v>
+        <v>2.631880292679284</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,19 +985,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.235255486085578</v>
+        <v>1.622381841369105</v>
       </c>
       <c r="C14">
-        <v>0.6266531349037052</v>
+        <v>0.1160032106135915</v>
       </c>
       <c r="D14">
-        <v>0.01282245387796621</v>
+        <v>0.09996329889123956</v>
       </c>
       <c r="E14">
-        <v>0.02985511591212975</v>
+        <v>0.0560669852029374</v>
       </c>
       <c r="F14">
-        <v>3.633366505639856</v>
+        <v>1.031989258070141</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1009,22 +1009,22 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.07357358114780066</v>
+        <v>0.06565261041217951</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>1.337369332685341</v>
       </c>
       <c r="L14">
-        <v>0.1996326291254462</v>
+        <v>0.1893447946687488</v>
       </c>
       <c r="M14">
-        <v>0.6821967718374253</v>
+        <v>0.3242546194722991</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>1.000526917970378</v>
       </c>
       <c r="O14">
-        <v>2.774380692097239</v>
+        <v>2.622407632745677</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,19 +1032,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.186903516377754</v>
+        <v>1.604946500110827</v>
       </c>
       <c r="C15">
-        <v>0.6193778377877379</v>
+        <v>0.1155933405957867</v>
       </c>
       <c r="D15">
-        <v>0.01263745800734384</v>
+        <v>0.09908036798989883</v>
       </c>
       <c r="E15">
-        <v>0.02984292931438426</v>
+        <v>0.05594334624088404</v>
       </c>
       <c r="F15">
-        <v>3.606350083286657</v>
+        <v>1.028802696309</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -1056,22 +1056,22 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.07372110619316796</v>
+        <v>0.06581646693451404</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>1.322563330507251</v>
       </c>
       <c r="L15">
-        <v>0.197893417942467</v>
+        <v>0.1878079938040571</v>
       </c>
       <c r="M15">
-        <v>0.6746754735751708</v>
+        <v>0.3209354087464291</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>1.006014796427072</v>
       </c>
       <c r="O15">
-        <v>2.753142315488716</v>
+        <v>2.616704459377928</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,19 +1079,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.912298451113543</v>
+        <v>1.505321241238761</v>
       </c>
       <c r="C16">
-        <v>0.5779949949220224</v>
+        <v>0.1132478196443785</v>
       </c>
       <c r="D16">
-        <v>0.0116012362411162</v>
+        <v>0.09404049269976866</v>
       </c>
       <c r="E16">
-        <v>0.02977701727012705</v>
+        <v>0.05525166725393227</v>
       </c>
       <c r="F16">
-        <v>3.454312303751834</v>
+        <v>1.011075253645444</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1103,22 +1103,22 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.07457533274318262</v>
+        <v>0.06677375264805541</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>1.237895917237552</v>
       </c>
       <c r="L16">
-        <v>0.188036118859273</v>
+        <v>0.1790496346656738</v>
       </c>
       <c r="M16">
-        <v>0.6319734699583535</v>
+        <v>0.3019805997365737</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>1.037901904019947</v>
       </c>
       <c r="O16">
-        <v>2.63363436287338</v>
+        <v>2.585507208500246</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,19 +1126,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.745903914751864</v>
+        <v>1.444449061048999</v>
       </c>
       <c r="C17">
-        <v>0.5528611235595235</v>
+        <v>0.1118115699218976</v>
       </c>
       <c r="D17">
-        <v>0.01098518271770033</v>
+        <v>0.09096580048303338</v>
       </c>
       <c r="E17">
-        <v>0.02973987318182381</v>
+        <v>0.05484210698100433</v>
       </c>
       <c r="F17">
-        <v>3.363386683983208</v>
+        <v>1.000663215075292</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1150,22 +1150,22 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.0751071836126318</v>
+        <v>0.06737716850358844</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>1.186104753466822</v>
       </c>
       <c r="L17">
-        <v>0.1820813455132964</v>
+        <v>0.1737184075979314</v>
       </c>
       <c r="M17">
-        <v>0.6061109151865978</v>
+        <v>0.2904088085805654</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>1.057848278473916</v>
       </c>
       <c r="O17">
-        <v>2.562172740373057</v>
+        <v>2.567658324687699</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,19 +1173,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.650902189419924</v>
+        <v>1.409521596692656</v>
       </c>
       <c r="C18">
-        <v>0.5384893156916917</v>
+        <v>0.1109863462381355</v>
       </c>
       <c r="D18">
-        <v>0.0106374203441888</v>
+        <v>0.08920337364464359</v>
       </c>
       <c r="E18">
-        <v>0.02971963940932387</v>
+        <v>0.05461185934229285</v>
       </c>
       <c r="F18">
-        <v>3.311897978465424</v>
+        <v>0.9948397295842</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1197,22 +1197,22 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.07541593799102309</v>
+        <v>0.06773010779225608</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>1.156366599019549</v>
       </c>
       <c r="L18">
-        <v>0.1786882607929954</v>
+        <v>0.1706667988370967</v>
       </c>
       <c r="M18">
-        <v>0.591349489641253</v>
+        <v>0.283772675687942</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>1.069459778212927</v>
       </c>
       <c r="O18">
-        <v>2.521708705135481</v>
+        <v>2.55785220468519</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,19 +1220,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.618852115603374</v>
+        <v>1.397709795853245</v>
       </c>
       <c r="C19">
-        <v>0.5336370166207587</v>
+        <v>0.1107070792862643</v>
       </c>
       <c r="D19">
-        <v>0.01052074563306249</v>
+        <v>0.08860766457478064</v>
       </c>
       <c r="E19">
-        <v>0.02971297571124365</v>
+        <v>0.05453480556215418</v>
       </c>
       <c r="F19">
-        <v>3.294599036232796</v>
+        <v>0.9928959174376928</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1244,22 +1244,22 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.07552096400209152</v>
+        <v>0.06785060915655983</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>1.146306098670408</v>
       </c>
       <c r="L19">
-        <v>0.177544725471158</v>
+        <v>0.1696360610154528</v>
       </c>
       <c r="M19">
-        <v>0.5863703278909398</v>
+        <v>0.2815290727435382</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>1.073414853068291</v>
       </c>
       <c r="O19">
-        <v>2.508114178063309</v>
+        <v>2.554609758207164</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,19 +1267,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.763542823542878</v>
+        <v>1.450920134602484</v>
       </c>
       <c r="C20">
-        <v>0.5555277332501589</v>
+        <v>0.1119643688824183</v>
       </c>
       <c r="D20">
-        <v>0.01105006825261867</v>
+        <v>0.0912924749174806</v>
       </c>
       <c r="E20">
-        <v>0.02974370852521613</v>
+        <v>0.05488515238985059</v>
       </c>
       <c r="F20">
-        <v>3.372980969130396</v>
+        <v>1.001754382063851</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1291,22 +1291,22 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.0750502719510564</v>
+        <v>0.06731232483569194</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>1.191612665394331</v>
       </c>
       <c r="L20">
-        <v>0.1827118916536108</v>
+        <v>0.1742843843787867</v>
       </c>
       <c r="M20">
-        <v>0.6088520384246152</v>
+        <v>0.291638587762364</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>1.055710524834272</v>
       </c>
       <c r="O20">
-        <v>2.569712921484196</v>
+        <v>2.569510444862516</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,19 +1314,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.258487596188274</v>
+        <v>1.630747882469024</v>
       </c>
       <c r="C21">
-        <v>0.6301476329604441</v>
+        <v>0.1161998163801243</v>
       </c>
       <c r="D21">
-        <v>0.01291161259855045</v>
+        <v>0.1003870479003126</v>
       </c>
       <c r="E21">
-        <v>0.02986103226412018</v>
+        <v>0.05612657530242871</v>
       </c>
       <c r="F21">
-        <v>3.646372856318891</v>
+        <v>1.033526921815181</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1338,22 +1338,22 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.0735029957828468</v>
+        <v>0.06557436271655881</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>1.344472550201658</v>
       </c>
       <c r="L21">
-        <v>0.2004686408610894</v>
+        <v>0.1900826101462343</v>
       </c>
       <c r="M21">
-        <v>0.6858108391359963</v>
+        <v>0.3258474824674522</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>0.997903176582648</v>
       </c>
       <c r="O21">
-        <v>2.784605623421442</v>
+        <v>2.62516924758674</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,19 +1361,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.589465036964441</v>
+        <v>1.749144813938841</v>
       </c>
       <c r="C22">
-        <v>0.6798581247210223</v>
+        <v>0.1189779702473857</v>
       </c>
       <c r="D22">
-        <v>0.01420112786736993</v>
+        <v>0.10638984039241</v>
       </c>
       <c r="E22">
-        <v>0.02994955190440174</v>
+        <v>0.05698756400998484</v>
       </c>
       <c r="F22">
-        <v>3.833419093909981</v>
+        <v>1.055871596385515</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1385,22 +1385,22 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.07251762430354258</v>
+        <v>0.06449219846443022</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>1.444918849691362</v>
       </c>
       <c r="L22">
-        <v>0.212402514519539</v>
+        <v>0.2005515588682982</v>
       </c>
       <c r="M22">
-        <v>0.7373146716521291</v>
+        <v>0.3484030685741004</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>0.9614134894739514</v>
       </c>
       <c r="O22">
-        <v>2.931672422057844</v>
+        <v>2.665943422145062</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,19 +1408,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.412065353290814</v>
+        <v>1.685868789571259</v>
       </c>
       <c r="C23">
-        <v>0.6532305906106615</v>
+        <v>0.117494180835763</v>
       </c>
       <c r="D23">
-        <v>0.01350546294764143</v>
+        <v>0.1031803884066136</v>
       </c>
       <c r="E23">
-        <v>0.02990112923425658</v>
+        <v>0.05652338167937287</v>
       </c>
       <c r="F23">
-        <v>3.732762678046726</v>
+        <v>1.043795869206818</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1432,22 +1432,22 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.07304114261828154</v>
+        <v>0.06506478566019069</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>1.391254417228254</v>
       </c>
       <c r="L23">
-        <v>0.2060007848861432</v>
+        <v>0.1949502960082796</v>
       </c>
       <c r="M23">
-        <v>0.7097057061704675</v>
+        <v>0.336345440132348</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>0.9807678981351327</v>
       </c>
       <c r="O23">
-        <v>2.852525512859273</v>
+        <v>2.643763927082972</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,19 +1455,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.755566227984446</v>
+        <v>1.447994349320709</v>
       </c>
       <c r="C24">
-        <v>0.5543219180904089</v>
+        <v>0.1118952869540877</v>
       </c>
       <c r="D24">
-        <v>0.01102071367160207</v>
+        <v>0.09114476909326186</v>
       </c>
       <c r="E24">
-        <v>0.02974197109374654</v>
+        <v>0.05486567534464193</v>
       </c>
       <c r="F24">
-        <v>3.368640958033325</v>
+        <v>1.001260560382022</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1479,22 +1479,22 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.07507599241716356</v>
+        <v>0.06734162189907167</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>1.189122423297931</v>
       </c>
       <c r="L24">
-        <v>0.18242672754414</v>
+        <v>0.1740284647196617</v>
       </c>
       <c r="M24">
-        <v>0.6076124444163611</v>
+        <v>0.2910825530017789</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>1.056676555116786</v>
       </c>
       <c r="O24">
-        <v>2.566302083707669</v>
+        <v>2.568671685996833</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,19 +1502,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.073798669598659</v>
+        <v>1.194583383812784</v>
       </c>
       <c r="C25">
-        <v>0.4507826283854968</v>
+        <v>0.1058880709932239</v>
       </c>
       <c r="D25">
-        <v>0.008585951877964959</v>
+        <v>0.07839126141433894</v>
       </c>
       <c r="E25">
-        <v>0.02961281087400236</v>
+        <v>0.05327980918228015</v>
       </c>
       <c r="F25">
-        <v>3.006305484978313</v>
+        <v>0.9616415666050386</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1526,22 +1526,22 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.07737957919193938</v>
+        <v>0.07002127198321872</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>0.9729838553915897</v>
       </c>
       <c r="L25">
-        <v>0.1581999159579794</v>
+        <v>0.1520192779446461</v>
       </c>
       <c r="M25">
-        <v>0.5017636797780014</v>
+        <v>0.2429987995606737</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>1.143838282626897</v>
       </c>
       <c r="O25">
-        <v>2.281575250412132</v>
+        <v>2.505108800067831</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_41/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_41/res_line/pl_mw.xlsx
@@ -421,19 +421,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.010117455319914</v>
+        <v>0.824751214671096</v>
       </c>
       <c r="C2">
-        <v>0.1014805794506373</v>
+        <v>0.1269536563578555</v>
       </c>
       <c r="D2">
-        <v>0.06917053970720843</v>
+        <v>0.11414641847729</v>
       </c>
       <c r="E2">
-        <v>0.05227447761394011</v>
+        <v>0.1359348193697016</v>
       </c>
       <c r="F2">
-        <v>0.9373153583723308</v>
+        <v>2.061461219676175</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -445,22 +445,22 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.07218003273476903</v>
+        <v>0.1915216948782703</v>
       </c>
       <c r="K2">
-        <v>0.8149854852149474</v>
+        <v>0.4103022769977542</v>
       </c>
       <c r="L2">
-        <v>0.136229541236716</v>
+        <v>0.2480145936236227</v>
       </c>
       <c r="M2">
-        <v>0.2081094107963004</v>
+        <v>0.22758329612072</v>
       </c>
       <c r="N2">
-        <v>1.212304573966389</v>
+        <v>2.577820989056841</v>
       </c>
       <c r="O2">
-        <v>2.471807679623737</v>
+        <v>5.513561611086914</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,19 +468,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.8861460302487671</v>
+        <v>0.7932138792440355</v>
       </c>
       <c r="C3">
-        <v>0.09849797033392349</v>
+        <v>0.1258845308745791</v>
       </c>
       <c r="D3">
-        <v>0.06301489952843298</v>
+        <v>0.1129672082035071</v>
       </c>
       <c r="E3">
-        <v>0.05168905166786608</v>
+        <v>0.1363442329701634</v>
       </c>
       <c r="F3">
-        <v>0.9236022268147437</v>
+        <v>2.069261271783304</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -492,22 +492,22 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.07375582146799697</v>
+        <v>0.1925720608257988</v>
       </c>
       <c r="K3">
-        <v>0.7084008521567142</v>
+        <v>0.3805653120324166</v>
       </c>
       <c r="L3">
-        <v>0.1257582198539282</v>
+        <v>0.2463367822808209</v>
       </c>
       <c r="M3">
-        <v>0.1847298481671587</v>
+        <v>0.2221226912225802</v>
       </c>
       <c r="N3">
-        <v>1.261263479168949</v>
+        <v>2.599368906662384</v>
       </c>
       <c r="O3">
-        <v>2.456971130196564</v>
+        <v>5.540438367404818</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,19 +515,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.8104569377185271</v>
+        <v>0.7741695568240061</v>
       </c>
       <c r="C4">
-        <v>0.09666722861830124</v>
+        <v>0.1252223891874209</v>
       </c>
       <c r="D4">
-        <v>0.0592775621793038</v>
+        <v>0.1122816244530611</v>
       </c>
       <c r="E4">
-        <v>0.05137524544897687</v>
+        <v>0.1366315677627448</v>
       </c>
       <c r="F4">
-        <v>0.9164731418461045</v>
+        <v>2.074851106953332</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -539,22 +539,22 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.07477802097108466</v>
+        <v>0.1932567539112222</v>
       </c>
       <c r="K4">
-        <v>0.643133619267175</v>
+        <v>0.3624249812154403</v>
       </c>
       <c r="L4">
-        <v>0.119432973376469</v>
+        <v>0.245391029690829</v>
       </c>
       <c r="M4">
-        <v>0.1704887016521894</v>
+        <v>0.218858270694863</v>
       </c>
       <c r="N4">
-        <v>1.292549918251718</v>
+        <v>2.613275470802918</v>
       </c>
       <c r="O4">
-        <v>2.451462516073946</v>
+        <v>5.559102859912599</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,19 +562,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.7797097595698972</v>
+        <v>0.7664899202037248</v>
       </c>
       <c r="C5">
-        <v>0.095921130703708</v>
+        <v>0.1249511436995974</v>
       </c>
       <c r="D5">
-        <v>0.05776468619090025</v>
+        <v>0.1120119679782476</v>
       </c>
       <c r="E5">
-        <v>0.05125861588884462</v>
+        <v>0.1367577237962756</v>
       </c>
       <c r="F5">
-        <v>0.9138817823450864</v>
+        <v>2.077330612572062</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -586,22 +586,22 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.07520817872881125</v>
+        <v>0.1935457884093381</v>
       </c>
       <c r="K5">
-        <v>0.6165720776691188</v>
+        <v>0.355062894433388</v>
       </c>
       <c r="L5">
-        <v>0.1168803588997562</v>
+        <v>0.2450269495040942</v>
       </c>
       <c r="M5">
-        <v>0.1647117148459003</v>
+        <v>0.2175503693991736</v>
       </c>
       <c r="N5">
-        <v>1.305602213239251</v>
+        <v>2.619112601451905</v>
       </c>
       <c r="O5">
-        <v>2.450093317160096</v>
+        <v>5.567253082521702</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,19 +609,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.774609736073586</v>
+        <v>0.7652196394226962</v>
       </c>
       <c r="C6">
-        <v>0.09579723262099549</v>
+        <v>0.1249060184149471</v>
       </c>
       <c r="D6">
-        <v>0.05751407117064389</v>
+        <v>0.1119677806585742</v>
       </c>
       <c r="E6">
-        <v>0.05123992253200882</v>
+        <v>0.1367792201068632</v>
       </c>
       <c r="F6">
-        <v>0.913470135426742</v>
+        <v>2.077754517477253</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -633,22 +633,22 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.07528042367652787</v>
+        <v>0.1935943878546382</v>
       </c>
       <c r="K6">
-        <v>0.6121634394267375</v>
+        <v>0.3538422670270762</v>
       </c>
       <c r="L6">
-        <v>0.1164579729670976</v>
+        <v>0.2449677847188383</v>
       </c>
       <c r="M6">
-        <v>0.1637539806268826</v>
+        <v>0.2173345491237377</v>
       </c>
       <c r="N6">
-        <v>1.307787674742964</v>
+        <v>2.620092128513761</v>
       </c>
       <c r="O6">
-        <v>2.449917997855323</v>
+        <v>5.568639312952101</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,19 +656,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.8100418934094478</v>
+        <v>0.7740656573683111</v>
       </c>
       <c r="C7">
-        <v>0.09665716696799365</v>
+        <v>0.125218736794487</v>
       </c>
       <c r="D7">
-        <v>0.059257118681451</v>
+        <v>0.1122779483256267</v>
       </c>
       <c r="E7">
-        <v>0.05137362729085382</v>
+        <v>0.136633232412164</v>
       </c>
       <c r="F7">
-        <v>0.9164369372065337</v>
+        <v>2.074883729765091</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -680,22 +680,22 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.07478376733218983</v>
+        <v>0.1932606113518469</v>
       </c>
       <c r="K7">
-        <v>0.6427752691998734</v>
+        <v>0.3623255704119401</v>
       </c>
       <c r="L7">
-        <v>0.1193984483775026</v>
+        <v>0.2453860331261737</v>
       </c>
       <c r="M7">
-        <v>0.1704106872302056</v>
+        <v>0.218840541087026</v>
       </c>
       <c r="N7">
-        <v>1.292724726841842</v>
+        <v>2.61335350356496</v>
       </c>
       <c r="O7">
-        <v>2.451440543829762</v>
+        <v>5.559210572027496</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,19 +703,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.9672758450712706</v>
+        <v>0.8138111788691162</v>
       </c>
       <c r="C8">
-        <v>0.1004519244965039</v>
+        <v>0.1265862121436427</v>
       </c>
       <c r="D8">
-        <v>0.06703899258864965</v>
+        <v>0.1137318772403191</v>
       </c>
       <c r="E8">
-        <v>0.05206300708168321</v>
+        <v>0.1360685374365929</v>
       </c>
       <c r="F8">
-        <v>0.9323125085052055</v>
+        <v>2.063984692217481</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -727,22 +727,22 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.07271193361706985</v>
+        <v>0.1918756185718618</v>
       </c>
       <c r="K8">
-        <v>0.7781930039708129</v>
+        <v>0.4000247124054681</v>
       </c>
       <c r="L8">
-        <v>0.1325966474907077</v>
+        <v>0.2474186143401482</v>
       </c>
       <c r="M8">
-        <v>0.2000230689736355</v>
+        <v>0.2256822139392369</v>
       </c>
       <c r="N8">
-        <v>1.22892797947269</v>
+        <v>2.585110453701308</v>
       </c>
       <c r="O8">
-        <v>2.465926195983229</v>
+        <v>5.522380352461454</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,19 +750,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.279577042073583</v>
+        <v>0.8942635222008732</v>
       </c>
       <c r="C9">
-        <v>0.1079084327401674</v>
+        <v>0.1292221245128786</v>
       </c>
       <c r="D9">
-        <v>0.08265921182595548</v>
+        <v>0.1168859981138226</v>
       </c>
       <c r="E9">
-        <v>0.05378804849301488</v>
+        <v>0.1352454212205547</v>
       </c>
       <c r="F9">
-        <v>0.9741999638631711</v>
+        <v>2.048951993145032</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -774,22 +774,22 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.06908934451858606</v>
+        <v>0.189474361527374</v>
       </c>
       <c r="K9">
-        <v>1.045581948661408</v>
+        <v>0.4748729671521801</v>
       </c>
       <c r="L9">
-        <v>0.1593644224706452</v>
+        <v>0.2520708131980598</v>
       </c>
       <c r="M9">
-        <v>0.2591082085323322</v>
+        <v>0.2397947410174659</v>
       </c>
       <c r="N9">
-        <v>1.1137950888227</v>
+        <v>2.535085119439056</v>
       </c>
       <c r="O9">
-        <v>2.524327035724468</v>
+        <v>5.467285822606669</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,19 +797,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.51227902582167</v>
+        <v>0.9548754209506285</v>
       </c>
       <c r="C10">
-        <v>0.1134118310255303</v>
+        <v>0.1311303396923691</v>
       </c>
       <c r="D10">
-        <v>0.09439217358566765</v>
+        <v>0.1193854585071392</v>
       </c>
       <c r="E10">
-        <v>0.05529912938968806</v>
+        <v>0.1348126362440567</v>
       </c>
       <c r="F10">
-        <v>1.012286087218328</v>
+        <v>2.041758068376481</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -821,22 +821,22 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.06670569885620381</v>
+        <v>0.1879008878295405</v>
       </c>
       <c r="K10">
-        <v>1.243812828014626</v>
+        <v>0.5304062477878517</v>
       </c>
       <c r="L10">
-        <v>0.1796600071678469</v>
+        <v>0.2558907208576571</v>
       </c>
       <c r="M10">
-        <v>0.303303761002141</v>
+        <v>0.2505814126513215</v>
       </c>
       <c r="N10">
-        <v>1.03564488024821</v>
+        <v>2.501590564579953</v>
       </c>
       <c r="O10">
-        <v>2.587607226127574</v>
+        <v>5.4372189116024</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,19 +844,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.619046510365052</v>
+        <v>0.9827703845231781</v>
       </c>
       <c r="C11">
-        <v>0.1159248174475707</v>
+        <v>0.1319921700570887</v>
       </c>
       <c r="D11">
-        <v>0.09979437697299431</v>
+        <v>0.1205615504132282</v>
       </c>
       <c r="E11">
-        <v>0.05604327569090373</v>
+        <v>0.13465281334115</v>
       </c>
       <c r="F11">
-        <v>1.031377788952739</v>
+        <v>2.039318502097075</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -868,22 +868,22 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.0656838735345886</v>
+        <v>0.1872262501672566</v>
       </c>
       <c r="K11">
-        <v>1.334537245002593</v>
+        <v>0.555783863692568</v>
       </c>
       <c r="L11">
-        <v>0.1890507197199227</v>
+        <v>0.2577149046965985</v>
       </c>
       <c r="M11">
-        <v>0.323619620602237</v>
+        <v>0.2555781344225423</v>
       </c>
       <c r="N11">
-        <v>1.001574653851605</v>
+        <v>2.487058976693891</v>
       </c>
       <c r="O11">
-        <v>2.621311161470913</v>
+        <v>5.425794931977947</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,19 +891,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.65962467100465</v>
+        <v>0.9933792229523135</v>
       </c>
       <c r="C12">
-        <v>0.1168781240086147</v>
+        <v>0.1323176149247161</v>
       </c>
       <c r="D12">
-        <v>0.1018501261872302</v>
+        <v>0.1210124739074843</v>
       </c>
       <c r="E12">
-        <v>0.05633355673469431</v>
+        <v>0.1345975973789724</v>
       </c>
       <c r="F12">
-        <v>1.03887701277381</v>
+        <v>2.038514218647592</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -915,22 +915,22 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.06530612453037321</v>
+        <v>0.1869766811334621</v>
       </c>
       <c r="K12">
-        <v>1.368984692650685</v>
+        <v>0.565409841254791</v>
       </c>
       <c r="L12">
-        <v>0.1926313088923663</v>
+        <v>0.2584180283317892</v>
       </c>
       <c r="M12">
-        <v>0.3313464879818255</v>
+        <v>0.2574830475074634</v>
       </c>
       <c r="N12">
-        <v>0.9888937588098035</v>
+        <v>2.481657566229508</v>
       </c>
       <c r="O12">
-        <v>2.634824810244794</v>
+        <v>5.421792477846736</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,19 +938,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.650878593387745</v>
+        <v>0.9910924023363066</v>
       </c>
       <c r="C13">
-        <v>0.1166727314826446</v>
+        <v>0.1322475653506103</v>
       </c>
       <c r="D13">
-        <v>0.1014069246180469</v>
+        <v>0.120915112938178</v>
       </c>
       <c r="E13">
-        <v>0.05627065652560503</v>
+        <v>0.1346092535213987</v>
       </c>
       <c r="F13">
-        <v>1.037249670014532</v>
+        <v>2.038682123524708</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -962,22 +962,22 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.0653870672229413</v>
+        <v>0.1870301680481692</v>
       </c>
       <c r="K13">
-        <v>1.361561502405777</v>
+        <v>0.5633360107524368</v>
       </c>
       <c r="L13">
-        <v>0.1918590442457102</v>
+        <v>0.258266050504524</v>
       </c>
       <c r="M13">
-        <v>0.3296808148213159</v>
+        <v>0.2570722251694804</v>
       </c>
       <c r="N13">
-        <v>0.9916148680009584</v>
+        <v>2.482816347841453</v>
       </c>
       <c r="O13">
-        <v>2.631880292679284</v>
+        <v>5.422640095642123</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,19 +985,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.622381841369105</v>
+        <v>0.9836422698919876</v>
       </c>
       <c r="C14">
-        <v>0.1160032106135915</v>
+        <v>0.1320189629658586</v>
       </c>
       <c r="D14">
-        <v>0.09996329889123956</v>
+        <v>0.1205985369893199</v>
       </c>
       <c r="E14">
-        <v>0.0560669852029374</v>
+        <v>0.1346481644902546</v>
       </c>
       <c r="F14">
-        <v>1.031989258070141</v>
+        <v>2.039249939166794</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1009,22 +1009,22 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.06565261041217951</v>
+        <v>0.1872055997795226</v>
       </c>
       <c r="K14">
-        <v>1.337369332685341</v>
+        <v>0.5565754806279983</v>
       </c>
       <c r="L14">
-        <v>0.1893447946687488</v>
+        <v>0.2577725042205259</v>
       </c>
       <c r="M14">
-        <v>0.3242546194722991</v>
+        <v>0.2557345978480328</v>
       </c>
       <c r="N14">
-        <v>1.000526917970378</v>
+        <v>2.486612567618364</v>
       </c>
       <c r="O14">
-        <v>2.622407632745677</v>
+        <v>5.425459165962309</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,19 +1032,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.604946500110827</v>
+        <v>0.9790847683079562</v>
       </c>
       <c r="C15">
-        <v>0.1155933405957867</v>
+        <v>0.1318788182057347</v>
       </c>
       <c r="D15">
-        <v>0.09908036798989883</v>
+        <v>0.1204053478900491</v>
       </c>
       <c r="E15">
-        <v>0.05594334624088404</v>
+        <v>0.1346726888428673</v>
       </c>
       <c r="F15">
-        <v>1.028802696309</v>
+        <v>2.039613301070446</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -1056,22 +1056,22 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.06581646693451404</v>
+        <v>0.1873138249083333</v>
       </c>
       <c r="K15">
-        <v>1.322563330507251</v>
+        <v>0.5524365314189481</v>
       </c>
       <c r="L15">
-        <v>0.1878079938040571</v>
+        <v>0.2574717977943379</v>
       </c>
       <c r="M15">
-        <v>0.3209354087464291</v>
+        <v>0.2549169201065453</v>
       </c>
       <c r="N15">
-        <v>1.006014796427072</v>
+        <v>2.488951064576147</v>
       </c>
       <c r="O15">
-        <v>2.616704459377928</v>
+        <v>5.427228049841972</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,19 +1079,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.505321241238761</v>
+        <v>0.9530588430472449</v>
       </c>
       <c r="C16">
-        <v>0.1132478196443785</v>
+        <v>0.1310738903719013</v>
       </c>
       <c r="D16">
-        <v>0.09404049269976866</v>
+        <v>0.1193093796412441</v>
       </c>
       <c r="E16">
-        <v>0.05525166725393227</v>
+        <v>0.1348238247090841</v>
       </c>
       <c r="F16">
-        <v>1.011075253645444</v>
+        <v>2.041934239770384</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1103,22 +1103,22 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.06677375264805541</v>
+        <v>0.1879458036328963</v>
       </c>
       <c r="K16">
-        <v>1.237895917237552</v>
+        <v>0.5287500332151467</v>
       </c>
       <c r="L16">
-        <v>0.1790496346656738</v>
+        <v>0.2557732386468743</v>
       </c>
       <c r="M16">
-        <v>0.3019805997365737</v>
+        <v>0.2502566593886755</v>
       </c>
       <c r="N16">
-        <v>1.037901904019947</v>
+        <v>2.502554427055566</v>
       </c>
       <c r="O16">
-        <v>2.585507208500246</v>
+        <v>5.438010800517134</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,19 +1126,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.444449061048999</v>
+        <v>0.9371748148161316</v>
       </c>
       <c r="C17">
-        <v>0.1118115699218976</v>
+        <v>0.1305784869397328</v>
       </c>
       <c r="D17">
-        <v>0.09096580048303338</v>
+        <v>0.1186470068350118</v>
       </c>
       <c r="E17">
-        <v>0.05484210698100433</v>
+        <v>0.1349260156976158</v>
       </c>
       <c r="F17">
-        <v>1.000663215075292</v>
+        <v>2.043571226628117</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1150,22 +1150,22 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.06737716850358844</v>
+        <v>0.1883440293788539</v>
       </c>
       <c r="K17">
-        <v>1.186104753466822</v>
+        <v>0.5142482622906925</v>
       </c>
       <c r="L17">
-        <v>0.1737184075979314</v>
+        <v>0.2547533138551543</v>
       </c>
       <c r="M17">
-        <v>0.2904088085805654</v>
+        <v>0.2474206351560539</v>
       </c>
       <c r="N17">
-        <v>1.057848278473916</v>
+        <v>2.511080260692042</v>
       </c>
       <c r="O17">
-        <v>2.567658324687699</v>
+        <v>5.445202510721629</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,19 +1173,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.409521596692656</v>
+        <v>0.9280691223756037</v>
       </c>
       <c r="C18">
-        <v>0.1109863462381355</v>
+        <v>0.1302929589113191</v>
       </c>
       <c r="D18">
-        <v>0.08920337364464359</v>
+        <v>0.1182697087642168</v>
       </c>
       <c r="E18">
-        <v>0.05461185934229285</v>
+        <v>0.1349882822222597</v>
       </c>
       <c r="F18">
-        <v>0.9948397295842</v>
+        <v>2.044591197990997</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1197,22 +1197,22 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.06773010779225608</v>
+        <v>0.1885769517827143</v>
       </c>
       <c r="K18">
-        <v>1.156366599019549</v>
+        <v>0.5059181076535992</v>
       </c>
       <c r="L18">
-        <v>0.1706667988370967</v>
+        <v>0.2541748263212469</v>
       </c>
       <c r="M18">
-        <v>0.283772675687942</v>
+        <v>0.2457978915095254</v>
       </c>
       <c r="N18">
-        <v>1.069459778212927</v>
+        <v>2.516050477947186</v>
       </c>
       <c r="O18">
-        <v>2.55785220468519</v>
+        <v>5.449551142767547</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,19 +1220,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.397709795853245</v>
+        <v>0.9249913313711318</v>
       </c>
       <c r="C19">
-        <v>0.1107070792862643</v>
+        <v>0.1301961840352703</v>
       </c>
       <c r="D19">
-        <v>0.08860766457478064</v>
+        <v>0.1181425960814266</v>
       </c>
       <c r="E19">
-        <v>0.05453480556215418</v>
+        <v>0.1350099645244072</v>
       </c>
       <c r="F19">
-        <v>0.9928959174376928</v>
+        <v>2.04495001922853</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1244,22 +1244,22 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.06785060915655983</v>
+        <v>0.1886564810336182</v>
       </c>
       <c r="K19">
-        <v>1.146306098670408</v>
+        <v>0.5030995458201346</v>
       </c>
       <c r="L19">
-        <v>0.1696360610154528</v>
+        <v>0.2539803623138965</v>
       </c>
       <c r="M19">
-        <v>0.2815290727435382</v>
+        <v>0.2452499164540782</v>
       </c>
       <c r="N19">
-        <v>1.073414853068291</v>
+        <v>2.517744710401626</v>
       </c>
       <c r="O19">
-        <v>2.554609758207164</v>
+        <v>5.451059967408185</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,19 +1267,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.450920134602484</v>
+        <v>0.9388625577312553</v>
       </c>
       <c r="C20">
-        <v>0.1119643688824183</v>
+        <v>0.1306312841527273</v>
       </c>
       <c r="D20">
-        <v>0.0912924749174806</v>
+        <v>0.1187171369602567</v>
       </c>
       <c r="E20">
-        <v>0.05488515238985059</v>
+        <v>0.1349147763617733</v>
       </c>
       <c r="F20">
-        <v>1.001754382063851</v>
+        <v>2.043388852273722</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1291,22 +1291,22 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.06731232483569194</v>
+        <v>0.1883012367840529</v>
       </c>
       <c r="K20">
-        <v>1.191612665394331</v>
+        <v>0.5157908784404128</v>
       </c>
       <c r="L20">
-        <v>0.1742843843787867</v>
+        <v>0.2548610441545094</v>
       </c>
       <c r="M20">
-        <v>0.291638587762364</v>
+        <v>0.2477216600407317</v>
       </c>
       <c r="N20">
-        <v>1.055710524834272</v>
+        <v>2.510165800939925</v>
       </c>
       <c r="O20">
-        <v>2.569510444862516</v>
+        <v>5.444414987783375</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,19 +1314,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.630747882469024</v>
+        <v>0.9858293220303551</v>
       </c>
       <c r="C21">
-        <v>0.1161998163801243</v>
+        <v>0.1320861338968982</v>
       </c>
       <c r="D21">
-        <v>0.1003870479003126</v>
+        <v>0.1206913724865259</v>
       </c>
       <c r="E21">
-        <v>0.05612657530242871</v>
+        <v>0.1346365915861529</v>
       </c>
       <c r="F21">
-        <v>1.033526921815181</v>
+        <v>2.039079916041203</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1338,22 +1338,22 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.06557436271655881</v>
+        <v>0.1871539111770328</v>
       </c>
       <c r="K21">
-        <v>1.344472550201658</v>
+        <v>0.5585607816491347</v>
       </c>
       <c r="L21">
-        <v>0.1900826101462343</v>
+        <v>0.2579171364276931</v>
       </c>
       <c r="M21">
-        <v>0.3258474824674522</v>
+        <v>0.2561271462420009</v>
       </c>
       <c r="N21">
-        <v>0.997903176582648</v>
+        <v>2.48549477445707</v>
       </c>
       <c r="O21">
-        <v>2.62516924758674</v>
+        <v>5.424622359409597</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,19 +1361,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.749144813938841</v>
+        <v>1.016790395048503</v>
       </c>
       <c r="C22">
-        <v>0.1189779702473857</v>
+        <v>0.1330316413579666</v>
       </c>
       <c r="D22">
-        <v>0.10638984039241</v>
+        <v>0.1220140491169133</v>
       </c>
       <c r="E22">
-        <v>0.05698756400998484</v>
+        <v>0.1344856958021516</v>
       </c>
       <c r="F22">
-        <v>1.055871596385515</v>
+        <v>2.036960355956722</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1385,22 +1385,22 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.06449219846443022</v>
+        <v>0.1864384598886417</v>
       </c>
       <c r="K22">
-        <v>1.444918849691362</v>
+        <v>0.5866065384729495</v>
       </c>
       <c r="L22">
-        <v>0.2005515588682982</v>
+        <v>0.2599863816482468</v>
       </c>
       <c r="M22">
-        <v>0.3484030685741004</v>
+        <v>0.2616949394524895</v>
       </c>
       <c r="N22">
-        <v>0.9614134894739514</v>
+        <v>2.469961779551836</v>
       </c>
       <c r="O22">
-        <v>2.665943422145062</v>
+        <v>5.413572447943636</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,19 +1408,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.685868789571259</v>
+        <v>1.0002418273952</v>
       </c>
       <c r="C23">
-        <v>0.117494180835763</v>
+        <v>0.1325274984622808</v>
       </c>
       <c r="D23">
-        <v>0.1031803884066136</v>
+        <v>0.1213051656006598</v>
       </c>
       <c r="E23">
-        <v>0.05652338167937287</v>
+        <v>0.134563410564505</v>
       </c>
       <c r="F23">
-        <v>1.043795869206818</v>
+        <v>2.038027952215515</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1432,22 +1432,22 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.06506478566019069</v>
+        <v>0.1868171676516521</v>
       </c>
       <c r="K23">
-        <v>1.391254417228254</v>
+        <v>0.5716296477589822</v>
       </c>
       <c r="L23">
-        <v>0.1949502960082796</v>
+        <v>0.2588754369873243</v>
       </c>
       <c r="M23">
-        <v>0.336345440132348</v>
+        <v>0.2587165530826141</v>
       </c>
       <c r="N23">
-        <v>0.9807678981351327</v>
+        <v>2.478197968089344</v>
       </c>
       <c r="O23">
-        <v>2.643763927082972</v>
+        <v>5.419297617743354</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,19 +1455,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.447994349320709</v>
+        <v>0.9380994473480655</v>
       </c>
       <c r="C24">
-        <v>0.1118952869540877</v>
+        <v>0.1306074167562414</v>
       </c>
       <c r="D24">
-        <v>0.09114476909326186</v>
+        <v>0.1186854201966554</v>
       </c>
       <c r="E24">
-        <v>0.05486567534464193</v>
+        <v>0.1349198467134443</v>
       </c>
       <c r="F24">
-        <v>1.001260560382022</v>
+        <v>2.043471058101062</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1479,22 +1479,22 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.06734162189907167</v>
+        <v>0.1883205709268054</v>
       </c>
       <c r="K24">
-        <v>1.189122423297931</v>
+        <v>0.5150934395017259</v>
       </c>
       <c r="L24">
-        <v>0.1740284647196617</v>
+        <v>0.2548123147319359</v>
       </c>
       <c r="M24">
-        <v>0.2910825530017789</v>
+        <v>0.2475855426182818</v>
       </c>
       <c r="N24">
-        <v>1.056676555116786</v>
+        <v>2.510579014498393</v>
       </c>
       <c r="O24">
-        <v>2.568671685996833</v>
+        <v>5.444770360198845</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,19 +1502,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.194583383812784</v>
+        <v>0.8722330020125639</v>
       </c>
       <c r="C25">
-        <v>0.1058880709932239</v>
+        <v>0.1285139878659223</v>
       </c>
       <c r="D25">
-        <v>0.07839126141433894</v>
+        <v>0.1160005557353543</v>
       </c>
       <c r="E25">
-        <v>0.05327980918228015</v>
+        <v>0.1354378026512606</v>
       </c>
       <c r="F25">
-        <v>0.9616415666050386</v>
+        <v>2.052341478158581</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1526,22 +1526,22 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.07002127198321872</v>
+        <v>0.1900903902015791</v>
       </c>
       <c r="K25">
-        <v>0.9729838553915897</v>
+        <v>0.4545279432996381</v>
       </c>
       <c r="L25">
-        <v>0.1520192779446461</v>
+        <v>0.2507413779843191</v>
       </c>
       <c r="M25">
-        <v>0.2429987995606737</v>
+        <v>0.2359030465529734</v>
       </c>
       <c r="N25">
-        <v>1.143838282626897</v>
+        <v>2.548045402632638</v>
       </c>
       <c r="O25">
-        <v>2.505108800067831</v>
+        <v>5.480359796643256</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_41/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_41/res_line/pl_mw.xlsx
@@ -421,19 +421,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.824751214671096</v>
+        <v>1.010117455319914</v>
       </c>
       <c r="C2">
-        <v>0.1269536563578555</v>
+        <v>0.1014805794505378</v>
       </c>
       <c r="D2">
-        <v>0.11414641847729</v>
+        <v>0.06917053970720843</v>
       </c>
       <c r="E2">
-        <v>0.1359348193697016</v>
+        <v>0.05227447761398096</v>
       </c>
       <c r="F2">
-        <v>2.061461219676175</v>
+        <v>0.9373153583723308</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -445,22 +445,22 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.1915216948782703</v>
+        <v>0.07218003273456297</v>
       </c>
       <c r="K2">
-        <v>0.4103022769977542</v>
+        <v>0.8149854852150611</v>
       </c>
       <c r="L2">
-        <v>0.2480145936236227</v>
+        <v>0.1362295412366024</v>
       </c>
       <c r="M2">
-        <v>0.22758329612072</v>
+        <v>0.2081094107962969</v>
       </c>
       <c r="N2">
-        <v>2.577820989056841</v>
+        <v>1.212304573966382</v>
       </c>
       <c r="O2">
-        <v>5.513561611086914</v>
+        <v>2.471807679623709</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,19 +468,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.7932138792440355</v>
+        <v>0.8861460302487103</v>
       </c>
       <c r="C3">
-        <v>0.1258845308745791</v>
+        <v>0.09849797033415086</v>
       </c>
       <c r="D3">
-        <v>0.1129672082035071</v>
+        <v>0.06301489952814165</v>
       </c>
       <c r="E3">
-        <v>0.1363442329701634</v>
+        <v>0.05168905166786253</v>
       </c>
       <c r="F3">
-        <v>2.069261271783304</v>
+        <v>0.923602226814765</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -492,22 +492,22 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.1925720608257988</v>
+        <v>0.07375582146797743</v>
       </c>
       <c r="K3">
-        <v>0.3805653120324166</v>
+        <v>0.7084008521567426</v>
       </c>
       <c r="L3">
-        <v>0.2463367822808209</v>
+        <v>0.1257582198539353</v>
       </c>
       <c r="M3">
-        <v>0.2221226912225802</v>
+        <v>0.1847298481671444</v>
       </c>
       <c r="N3">
-        <v>2.599368906662384</v>
+        <v>1.261263479168957</v>
       </c>
       <c r="O3">
-        <v>5.540438367404818</v>
+        <v>2.456971130196621</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,19 +515,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.7741695568240061</v>
+        <v>0.8104569377187261</v>
       </c>
       <c r="C4">
-        <v>0.1252223891874209</v>
+        <v>0.0966672286187702</v>
       </c>
       <c r="D4">
-        <v>0.1122816244530611</v>
+        <v>0.05927756217918301</v>
       </c>
       <c r="E4">
-        <v>0.1366315677627448</v>
+        <v>0.05137524544900351</v>
       </c>
       <c r="F4">
-        <v>2.074851106953332</v>
+        <v>0.9164731418461187</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -539,22 +539,22 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.1932567539112222</v>
+        <v>0.07477802097096742</v>
       </c>
       <c r="K4">
-        <v>0.3624249812154403</v>
+        <v>0.643133619267175</v>
       </c>
       <c r="L4">
-        <v>0.245391029690829</v>
+        <v>0.1194329733763908</v>
       </c>
       <c r="M4">
-        <v>0.218858270694863</v>
+        <v>0.1704887016522036</v>
       </c>
       <c r="N4">
-        <v>2.613275470802918</v>
+        <v>1.292549918251728</v>
       </c>
       <c r="O4">
-        <v>5.559102859912599</v>
+        <v>2.451462516073931</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,19 +562,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.7664899202037248</v>
+        <v>0.7797097595698972</v>
       </c>
       <c r="C5">
-        <v>0.1249511436995974</v>
+        <v>0.09592113070355168</v>
       </c>
       <c r="D5">
-        <v>0.1120119679782476</v>
+        <v>0.0577646861908292</v>
       </c>
       <c r="E5">
-        <v>0.1367577237962756</v>
+        <v>0.05125861588881264</v>
       </c>
       <c r="F5">
-        <v>2.077330612572062</v>
+        <v>0.9138817823450651</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -586,22 +586,22 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.1935457884093381</v>
+        <v>0.07520817872892316</v>
       </c>
       <c r="K5">
-        <v>0.355062894433388</v>
+        <v>0.6165720776689483</v>
       </c>
       <c r="L5">
-        <v>0.2450269495040942</v>
+        <v>0.1168803588997775</v>
       </c>
       <c r="M5">
-        <v>0.2175503693991736</v>
+        <v>0.1647117148458754</v>
       </c>
       <c r="N5">
-        <v>2.619112601451905</v>
+        <v>1.305602213239278</v>
       </c>
       <c r="O5">
-        <v>5.567253082521702</v>
+        <v>2.450093317160025</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,19 +609,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.7652196394226962</v>
+        <v>0.7746097360736144</v>
       </c>
       <c r="C6">
-        <v>0.1249060184149471</v>
+        <v>0.09579723262091022</v>
       </c>
       <c r="D6">
-        <v>0.1119677806585742</v>
+        <v>0.05751407117075047</v>
       </c>
       <c r="E6">
-        <v>0.1367792201068632</v>
+        <v>0.0512399225320106</v>
       </c>
       <c r="F6">
-        <v>2.077754517477253</v>
+        <v>0.913470135426742</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -633,22 +633,22 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.1935943878546382</v>
+        <v>0.07528042367647814</v>
       </c>
       <c r="K6">
-        <v>0.3538422670270762</v>
+        <v>0.6121634394268796</v>
       </c>
       <c r="L6">
-        <v>0.2449677847188383</v>
+        <v>0.1164579729671331</v>
       </c>
       <c r="M6">
-        <v>0.2173345491237377</v>
+        <v>0.1637539806268897</v>
       </c>
       <c r="N6">
-        <v>2.620092128513761</v>
+        <v>1.307787674742942</v>
       </c>
       <c r="O6">
-        <v>5.568639312952101</v>
+        <v>2.449917997855323</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,19 +656,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.7740656573683111</v>
+        <v>0.8100418934093625</v>
       </c>
       <c r="C7">
-        <v>0.125218736794487</v>
+        <v>0.09665716696775917</v>
       </c>
       <c r="D7">
-        <v>0.1122779483256267</v>
+        <v>0.05925711868156469</v>
       </c>
       <c r="E7">
-        <v>0.136633232412164</v>
+        <v>0.05137362729085204</v>
       </c>
       <c r="F7">
-        <v>2.074883729765091</v>
+        <v>0.9164369372065195</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -680,22 +680,22 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1932606113518469</v>
+        <v>0.07478376733230707</v>
       </c>
       <c r="K7">
-        <v>0.3623255704119401</v>
+        <v>0.6427752691998307</v>
       </c>
       <c r="L7">
-        <v>0.2453860331261737</v>
+        <v>0.1193984483774813</v>
       </c>
       <c r="M7">
-        <v>0.218840541087026</v>
+        <v>0.170410687230202</v>
       </c>
       <c r="N7">
-        <v>2.61335350356496</v>
+        <v>1.29272472684185</v>
       </c>
       <c r="O7">
-        <v>5.559210572027496</v>
+        <v>2.45144054382969</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,19 +703,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.8138111788691162</v>
+        <v>0.9672758450712706</v>
       </c>
       <c r="C8">
-        <v>0.1265862121436427</v>
+        <v>0.1004519244964186</v>
       </c>
       <c r="D8">
-        <v>0.1137318772403191</v>
+        <v>0.06703899258847201</v>
       </c>
       <c r="E8">
-        <v>0.1360685374365929</v>
+        <v>0.05206300708169209</v>
       </c>
       <c r="F8">
-        <v>2.063984692217481</v>
+        <v>0.93231250850517</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -727,22 +727,22 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1918756185718618</v>
+        <v>0.07271193361705031</v>
       </c>
       <c r="K8">
-        <v>0.4000247124054681</v>
+        <v>0.7781930039706992</v>
       </c>
       <c r="L8">
-        <v>0.2474186143401482</v>
+        <v>0.1325966474907858</v>
       </c>
       <c r="M8">
-        <v>0.2256822139392369</v>
+        <v>0.2000230689736284</v>
       </c>
       <c r="N8">
-        <v>2.585110453701308</v>
+        <v>1.228927979472655</v>
       </c>
       <c r="O8">
-        <v>5.522380352461454</v>
+        <v>2.465926195983144</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,19 +750,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.8942635222008732</v>
+        <v>1.279577042073726</v>
       </c>
       <c r="C9">
-        <v>0.1292221245128786</v>
+        <v>0.1079084327405084</v>
       </c>
       <c r="D9">
-        <v>0.1168859981138226</v>
+        <v>0.08265921182596969</v>
       </c>
       <c r="E9">
-        <v>0.1352454212205547</v>
+        <v>0.05378804849303087</v>
       </c>
       <c r="F9">
-        <v>2.048951993145032</v>
+        <v>0.9741999638631498</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -774,22 +774,22 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.189474361527374</v>
+        <v>0.0690893445185754</v>
       </c>
       <c r="K9">
-        <v>0.4748729671521801</v>
+        <v>1.045581948661379</v>
       </c>
       <c r="L9">
-        <v>0.2520708131980598</v>
+        <v>0.1593644224706878</v>
       </c>
       <c r="M9">
-        <v>0.2397947410174659</v>
+        <v>0.2591082085323357</v>
       </c>
       <c r="N9">
-        <v>2.535085119439056</v>
+        <v>1.113795088822682</v>
       </c>
       <c r="O9">
-        <v>5.467285822606669</v>
+        <v>2.524327035724355</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,19 +797,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.9548754209506285</v>
+        <v>1.512279025821812</v>
       </c>
       <c r="C10">
-        <v>0.1311303396923691</v>
+        <v>0.1134118310251679</v>
       </c>
       <c r="D10">
-        <v>0.1193854585071392</v>
+        <v>0.09439217358585239</v>
       </c>
       <c r="E10">
-        <v>0.1348126362440567</v>
+        <v>0.05529912938972004</v>
       </c>
       <c r="F10">
-        <v>2.041758068376481</v>
+        <v>1.012286087218342</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -821,22 +821,22 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1879008878295405</v>
+        <v>0.06670569885627842</v>
       </c>
       <c r="K10">
-        <v>0.5304062477878517</v>
+        <v>1.243812828014626</v>
       </c>
       <c r="L10">
-        <v>0.2558907208576571</v>
+        <v>0.1796600071677545</v>
       </c>
       <c r="M10">
-        <v>0.2505814126513215</v>
+        <v>0.3033037610021339</v>
       </c>
       <c r="N10">
-        <v>2.501590564579953</v>
+        <v>1.035644880248215</v>
       </c>
       <c r="O10">
-        <v>5.4372189116024</v>
+        <v>2.587607226127574</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,19 +844,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.9827703845231781</v>
+        <v>1.619046510365138</v>
       </c>
       <c r="C11">
-        <v>0.1319921700570887</v>
+        <v>0.1159248174475636</v>
       </c>
       <c r="D11">
-        <v>0.1205615504132282</v>
+        <v>0.09979437697282378</v>
       </c>
       <c r="E11">
-        <v>0.13465281334115</v>
+        <v>0.05604327569090728</v>
       </c>
       <c r="F11">
-        <v>2.039318502097075</v>
+        <v>1.031377788952724</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -868,22 +868,22 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1872262501672566</v>
+        <v>0.06568387353453708</v>
       </c>
       <c r="K11">
-        <v>0.555783863692568</v>
+        <v>1.334537245002764</v>
       </c>
       <c r="L11">
-        <v>0.2577149046965985</v>
+        <v>0.1890507197199298</v>
       </c>
       <c r="M11">
-        <v>0.2555781344225423</v>
+        <v>0.3236196206022299</v>
       </c>
       <c r="N11">
-        <v>2.487058976693891</v>
+        <v>1.001574653851598</v>
       </c>
       <c r="O11">
-        <v>5.425794931977947</v>
+        <v>2.621311161470885</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,19 +891,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.9933792229523135</v>
+        <v>1.65962467100448</v>
       </c>
       <c r="C12">
-        <v>0.1323176149247161</v>
+        <v>0.1168781240084869</v>
       </c>
       <c r="D12">
-        <v>0.1210124739074843</v>
+        <v>0.1018501261872444</v>
       </c>
       <c r="E12">
-        <v>0.1345975973789724</v>
+        <v>0.05633355673469254</v>
       </c>
       <c r="F12">
-        <v>2.038514218647592</v>
+        <v>1.038877012773781</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -915,22 +915,22 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1869766811334621</v>
+        <v>0.06530612453043716</v>
       </c>
       <c r="K12">
-        <v>0.565409841254791</v>
+        <v>1.368984692650741</v>
       </c>
       <c r="L12">
-        <v>0.2584180283317892</v>
+        <v>0.1926313088923308</v>
       </c>
       <c r="M12">
-        <v>0.2574830475074634</v>
+        <v>0.3313464879817971</v>
       </c>
       <c r="N12">
-        <v>2.481657566229508</v>
+        <v>0.9888937588097715</v>
       </c>
       <c r="O12">
-        <v>5.421792477846736</v>
+        <v>2.634824810244737</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,19 +938,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.9910924023363066</v>
+        <v>1.650878593387517</v>
       </c>
       <c r="C13">
-        <v>0.1322475653506103</v>
+        <v>0.1166727314824101</v>
       </c>
       <c r="D13">
-        <v>0.120915112938178</v>
+        <v>0.1014069246181606</v>
       </c>
       <c r="E13">
-        <v>0.1346092535213987</v>
+        <v>0.05627065652560503</v>
       </c>
       <c r="F13">
-        <v>2.038682123524708</v>
+        <v>1.037249670014518</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -962,22 +962,22 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.1870301680481692</v>
+        <v>0.06538706722293774</v>
       </c>
       <c r="K13">
-        <v>0.5633360107524368</v>
+        <v>1.361561502405806</v>
       </c>
       <c r="L13">
-        <v>0.258266050504524</v>
+        <v>0.1918590442456605</v>
       </c>
       <c r="M13">
-        <v>0.2570722251694804</v>
+        <v>0.3296808148213017</v>
       </c>
       <c r="N13">
-        <v>2.482816347841453</v>
+        <v>0.9916148680009531</v>
       </c>
       <c r="O13">
-        <v>5.422640095642123</v>
+        <v>2.631880292679284</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,19 +985,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.9836422698919876</v>
+        <v>1.622381841369076</v>
       </c>
       <c r="C14">
-        <v>0.1320189629658586</v>
+        <v>0.116003210613961</v>
       </c>
       <c r="D14">
-        <v>0.1205985369893199</v>
+        <v>0.09996329889116851</v>
       </c>
       <c r="E14">
-        <v>0.1346481644902546</v>
+        <v>0.05606698520295161</v>
       </c>
       <c r="F14">
-        <v>2.039249939166794</v>
+        <v>1.031989258070141</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1009,22 +1009,22 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.1872055997795226</v>
+        <v>0.06565261041217241</v>
       </c>
       <c r="K14">
-        <v>0.5565754806279983</v>
+        <v>1.337369332685284</v>
       </c>
       <c r="L14">
-        <v>0.2577725042205259</v>
+        <v>0.1893447946687488</v>
       </c>
       <c r="M14">
-        <v>0.2557345978480328</v>
+        <v>0.3242546194723062</v>
       </c>
       <c r="N14">
-        <v>2.486612567618364</v>
+        <v>1.000526917970364</v>
       </c>
       <c r="O14">
-        <v>5.425459165962309</v>
+        <v>2.622407632745677</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,19 +1032,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.9790847683079562</v>
+        <v>1.604946500110998</v>
       </c>
       <c r="C15">
-        <v>0.1318788182057347</v>
+        <v>0.1155933405961349</v>
       </c>
       <c r="D15">
-        <v>0.1204053478900491</v>
+        <v>0.09908036798991304</v>
       </c>
       <c r="E15">
-        <v>0.1346726888428673</v>
+        <v>0.05594334624086805</v>
       </c>
       <c r="F15">
-        <v>2.039613301070446</v>
+        <v>1.028802696309</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -1056,22 +1056,22 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.1873138249083333</v>
+        <v>0.06581646693449095</v>
       </c>
       <c r="K15">
-        <v>0.5524365314189481</v>
+        <v>1.322563330507137</v>
       </c>
       <c r="L15">
-        <v>0.2574717977943379</v>
+        <v>0.1878079938041282</v>
       </c>
       <c r="M15">
-        <v>0.2549169201065453</v>
+        <v>0.3209354087464291</v>
       </c>
       <c r="N15">
-        <v>2.488951064576147</v>
+        <v>1.006014796427074</v>
       </c>
       <c r="O15">
-        <v>5.427228049841972</v>
+        <v>2.616704459377928</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,19 +1079,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.9530588430472449</v>
+        <v>1.505321241238789</v>
       </c>
       <c r="C16">
-        <v>0.1310738903719013</v>
+        <v>0.1132478196446129</v>
       </c>
       <c r="D16">
-        <v>0.1193093796412441</v>
+        <v>0.09404049269976156</v>
       </c>
       <c r="E16">
-        <v>0.1348238247090841</v>
+        <v>0.05525166725396247</v>
       </c>
       <c r="F16">
-        <v>2.041934239770384</v>
+        <v>1.011075253645458</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1103,22 +1103,22 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.1879458036328963</v>
+        <v>0.06677375264811403</v>
       </c>
       <c r="K16">
-        <v>0.5287500332151467</v>
+        <v>1.23789591723758</v>
       </c>
       <c r="L16">
-        <v>0.2557732386468743</v>
+        <v>0.1790496346654677</v>
       </c>
       <c r="M16">
-        <v>0.2502566593886755</v>
+        <v>0.3019805997365594</v>
       </c>
       <c r="N16">
-        <v>2.502554427055566</v>
+        <v>1.037901904019998</v>
       </c>
       <c r="O16">
-        <v>5.438010800517134</v>
+        <v>2.585507208500246</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,19 +1126,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.9371748148161316</v>
+        <v>1.444449061048971</v>
       </c>
       <c r="C17">
-        <v>0.1305784869397328</v>
+        <v>0.1118115699219047</v>
       </c>
       <c r="D17">
-        <v>0.1186470068350118</v>
+        <v>0.09096580048326786</v>
       </c>
       <c r="E17">
-        <v>0.1349260156976158</v>
+        <v>0.05484210698101855</v>
       </c>
       <c r="F17">
-        <v>2.043571226628117</v>
+        <v>1.000663215075306</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1150,22 +1150,22 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.1883440293788539</v>
+        <v>0.06737716850357778</v>
       </c>
       <c r="K17">
-        <v>0.5142482622906925</v>
+        <v>1.186104753466878</v>
       </c>
       <c r="L17">
-        <v>0.2547533138551543</v>
+        <v>0.1737184075979457</v>
       </c>
       <c r="M17">
-        <v>0.2474206351560539</v>
+        <v>0.2904088085805583</v>
       </c>
       <c r="N17">
-        <v>2.511080260692042</v>
+        <v>1.057848278473857</v>
       </c>
       <c r="O17">
-        <v>5.445202510721629</v>
+        <v>2.567658324687784</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,19 +1173,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.9280691223756037</v>
+        <v>1.409521596692684</v>
       </c>
       <c r="C18">
-        <v>0.1302929589113191</v>
+        <v>0.1109863462383913</v>
       </c>
       <c r="D18">
-        <v>0.1182697087642168</v>
+        <v>0.0892033736446507</v>
       </c>
       <c r="E18">
-        <v>0.1349882822222597</v>
+        <v>0.05461185934229285</v>
       </c>
       <c r="F18">
-        <v>2.044591197990997</v>
+        <v>0.9948397295841929</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1197,22 +1197,22 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.1885769517827143</v>
+        <v>0.06773010779229516</v>
       </c>
       <c r="K18">
-        <v>0.5059181076535992</v>
+        <v>1.156366599019464</v>
       </c>
       <c r="L18">
-        <v>0.2541748263212469</v>
+        <v>0.1706667988370967</v>
       </c>
       <c r="M18">
-        <v>0.2457978915095254</v>
+        <v>0.2837726756879562</v>
       </c>
       <c r="N18">
-        <v>2.516050477947186</v>
+        <v>1.069459778212931</v>
       </c>
       <c r="O18">
-        <v>5.449551142767547</v>
+        <v>2.557852204685162</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,19 +1220,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.9249913313711318</v>
+        <v>1.397709795853473</v>
       </c>
       <c r="C19">
-        <v>0.1301961840352703</v>
+        <v>0.1107070792862572</v>
       </c>
       <c r="D19">
-        <v>0.1181425960814266</v>
+        <v>0.08860766457463853</v>
       </c>
       <c r="E19">
-        <v>0.1350099645244072</v>
+        <v>0.05453480556215418</v>
       </c>
       <c r="F19">
-        <v>2.04495001922853</v>
+        <v>0.9928959174376715</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1244,22 +1244,22 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.1886564810336182</v>
+        <v>0.06785060915655272</v>
       </c>
       <c r="K19">
-        <v>0.5030995458201346</v>
+        <v>1.146306098670465</v>
       </c>
       <c r="L19">
-        <v>0.2539803623138965</v>
+        <v>0.1696360610155949</v>
       </c>
       <c r="M19">
-        <v>0.2452499164540782</v>
+        <v>0.2815290727435311</v>
       </c>
       <c r="N19">
-        <v>2.517744710401626</v>
+        <v>1.073414853068259</v>
       </c>
       <c r="O19">
-        <v>5.451059967408185</v>
+        <v>2.554609758207135</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,19 +1267,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.9388625577312553</v>
+        <v>1.450920134602484</v>
       </c>
       <c r="C20">
-        <v>0.1306312841527273</v>
+        <v>0.1119643688825462</v>
       </c>
       <c r="D20">
-        <v>0.1187171369602567</v>
+        <v>0.09129247491770798</v>
       </c>
       <c r="E20">
-        <v>0.1349147763617733</v>
+        <v>0.05488515238986658</v>
       </c>
       <c r="F20">
-        <v>2.043388852273722</v>
+        <v>1.001754382063851</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1291,22 +1291,22 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.1883012367840529</v>
+        <v>0.06731232483568306</v>
       </c>
       <c r="K20">
-        <v>0.5157908784404128</v>
+        <v>1.191612665394331</v>
       </c>
       <c r="L20">
-        <v>0.2548610441545094</v>
+        <v>0.1742843843787156</v>
       </c>
       <c r="M20">
-        <v>0.2477216600407317</v>
+        <v>0.2916385877623711</v>
       </c>
       <c r="N20">
-        <v>2.510165800939925</v>
+        <v>1.055710524834256</v>
       </c>
       <c r="O20">
-        <v>5.444414987783375</v>
+        <v>2.569510444862459</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,19 +1314,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.9858293220303551</v>
+        <v>1.630747882469137</v>
       </c>
       <c r="C21">
-        <v>0.1320861338968982</v>
+        <v>0.1161998163803588</v>
       </c>
       <c r="D21">
-        <v>0.1206913724865259</v>
+        <v>0.1003870479003126</v>
       </c>
       <c r="E21">
-        <v>0.1346365915861529</v>
+        <v>0.05612657530244469</v>
       </c>
       <c r="F21">
-        <v>2.039079916041203</v>
+        <v>1.033526921815195</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1338,22 +1338,22 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.1871539111770328</v>
+        <v>0.06557436271655348</v>
       </c>
       <c r="K21">
-        <v>0.5585607816491347</v>
+        <v>1.344472550201687</v>
       </c>
       <c r="L21">
-        <v>0.2579171364276931</v>
+        <v>0.190082610146213</v>
       </c>
       <c r="M21">
-        <v>0.2561271462420009</v>
+        <v>0.3258474824674451</v>
       </c>
       <c r="N21">
-        <v>2.48549477445707</v>
+        <v>0.9979031765826285</v>
       </c>
       <c r="O21">
-        <v>5.424622359409597</v>
+        <v>2.62516924758674</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,19 +1361,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.016790395048503</v>
+        <v>1.749144813938841</v>
       </c>
       <c r="C22">
-        <v>0.1330316413579666</v>
+        <v>0.1189779702476201</v>
       </c>
       <c r="D22">
-        <v>0.1220140491169133</v>
+        <v>0.1063898403924952</v>
       </c>
       <c r="E22">
-        <v>0.1344856958021516</v>
+        <v>0.05698756400996707</v>
       </c>
       <c r="F22">
-        <v>2.036960355956722</v>
+        <v>1.055871596385529</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1385,22 +1385,22 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.1864384598886417</v>
+        <v>0.06449219846448351</v>
       </c>
       <c r="K22">
-        <v>0.5866065384729495</v>
+        <v>1.444918849691391</v>
       </c>
       <c r="L22">
-        <v>0.2599863816482468</v>
+        <v>0.2005515588683267</v>
       </c>
       <c r="M22">
-        <v>0.2616949394524895</v>
+        <v>0.3484030685741075</v>
       </c>
       <c r="N22">
-        <v>2.469961779551836</v>
+        <v>0.9614134894739585</v>
       </c>
       <c r="O22">
-        <v>5.413572447943636</v>
+        <v>2.665943422145006</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,19 +1408,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.0002418273952</v>
+        <v>1.685868789571231</v>
       </c>
       <c r="C23">
-        <v>0.1325274984622808</v>
+        <v>0.1174941808360046</v>
       </c>
       <c r="D23">
-        <v>0.1213051656006598</v>
+        <v>0.1031803884066136</v>
       </c>
       <c r="E23">
-        <v>0.134563410564505</v>
+        <v>0.0565233816793711</v>
       </c>
       <c r="F23">
-        <v>2.038027952215515</v>
+        <v>1.043795869206804</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1432,22 +1432,22 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.1868171676516521</v>
+        <v>0.06506478566026708</v>
       </c>
       <c r="K23">
-        <v>0.5716296477589822</v>
+        <v>1.39125441722814</v>
       </c>
       <c r="L23">
-        <v>0.2588754369873243</v>
+        <v>0.1949502960081873</v>
       </c>
       <c r="M23">
-        <v>0.2587165530826141</v>
+        <v>0.3363454401323409</v>
       </c>
       <c r="N23">
-        <v>2.478197968089344</v>
+        <v>0.9807678981351255</v>
       </c>
       <c r="O23">
-        <v>5.419297617743354</v>
+        <v>2.643763927082915</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,19 +1455,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.9380994473480655</v>
+        <v>1.44799434932068</v>
       </c>
       <c r="C24">
-        <v>0.1306074167562414</v>
+        <v>0.1118952869541019</v>
       </c>
       <c r="D24">
-        <v>0.1186854201966554</v>
+        <v>0.09114476909325475</v>
       </c>
       <c r="E24">
-        <v>0.1349198467134443</v>
+        <v>0.05486567534462949</v>
       </c>
       <c r="F24">
-        <v>2.043471058101062</v>
+        <v>1.001260560382022</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1479,22 +1479,22 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.1883205709268054</v>
+        <v>0.067341621899077</v>
       </c>
       <c r="K24">
-        <v>0.5150934395017259</v>
+        <v>1.189122423297903</v>
       </c>
       <c r="L24">
-        <v>0.2548123147319359</v>
+        <v>0.1740284647196617</v>
       </c>
       <c r="M24">
-        <v>0.2475855426182818</v>
+        <v>0.2910825530017718</v>
       </c>
       <c r="N24">
-        <v>2.510579014498393</v>
+        <v>1.056676555116731</v>
       </c>
       <c r="O24">
-        <v>5.444770360198845</v>
+        <v>2.568671685996748</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,19 +1502,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.8722330020125639</v>
+        <v>1.19458338381267</v>
       </c>
       <c r="C25">
-        <v>0.1285139878659223</v>
+        <v>0.1058880709931316</v>
       </c>
       <c r="D25">
-        <v>0.1160005557353543</v>
+        <v>0.07839126141416131</v>
       </c>
       <c r="E25">
-        <v>0.1354378026512606</v>
+        <v>0.05327980918228192</v>
       </c>
       <c r="F25">
-        <v>2.052341478158581</v>
+        <v>0.9616415666050315</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1526,22 +1526,22 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.1900903902015791</v>
+        <v>0.07002127198321695</v>
       </c>
       <c r="K25">
-        <v>0.4545279432996381</v>
+        <v>0.9729838553915897</v>
       </c>
       <c r="L25">
-        <v>0.2507413779843191</v>
+        <v>0.1520192779446461</v>
       </c>
       <c r="M25">
-        <v>0.2359030465529734</v>
+        <v>0.2429987995606737</v>
       </c>
       <c r="N25">
-        <v>2.548045402632638</v>
+        <v>1.143838282626888</v>
       </c>
       <c r="O25">
-        <v>5.480359796643256</v>
+        <v>2.505108800067831</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_41/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_41/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.010117455319914</v>
+        <v>2.580418484588847</v>
       </c>
       <c r="C2">
-        <v>0.1014805794505378</v>
+        <v>0.4815344345608139</v>
       </c>
       <c r="D2">
-        <v>0.06917053970720843</v>
+        <v>0.05575847222149122</v>
       </c>
       <c r="E2">
-        <v>0.05227447761398096</v>
+        <v>0.0462570786689438</v>
       </c>
       <c r="F2">
-        <v>0.9373153583723308</v>
+        <v>0.7218562894814298</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.007083661435539956</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.006417112633685829</v>
       </c>
       <c r="J2">
-        <v>0.07218003273456297</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="K2">
-        <v>0.8149854852150611</v>
+        <v>0.3848580860293644</v>
       </c>
       <c r="L2">
-        <v>0.1362295412366024</v>
+        <v>0.07687370489015422</v>
       </c>
       <c r="M2">
-        <v>0.2081094107962969</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>1.212304573966382</v>
+        <v>0.2088129041032545</v>
       </c>
       <c r="O2">
-        <v>2.471807679623709</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>0.4612274471055287</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>1.857829186939426</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.8861460302487103</v>
+        <v>2.248977614300202</v>
       </c>
       <c r="C3">
-        <v>0.09849797033415086</v>
+        <v>0.429491541859079</v>
       </c>
       <c r="D3">
-        <v>0.06301489952814165</v>
+        <v>0.0522163538589453</v>
       </c>
       <c r="E3">
-        <v>0.05168905166786253</v>
+        <v>0.04535473048090588</v>
       </c>
       <c r="F3">
-        <v>0.923602226814765</v>
+        <v>0.7049924191464285</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.009526608179828852</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.00867317726999195</v>
       </c>
       <c r="J3">
-        <v>0.07375582146797743</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="K3">
-        <v>0.7084008521567426</v>
+        <v>0.3931910259218867</v>
       </c>
       <c r="L3">
-        <v>0.1257582198539353</v>
+        <v>0.0744070115221227</v>
       </c>
       <c r="M3">
-        <v>0.1847298481671444</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>1.261263479168957</v>
+        <v>0.1873140678942917</v>
       </c>
       <c r="O3">
-        <v>2.456971130196621</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>0.403058026061359</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>1.82377716483829</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.8104569377187261</v>
+        <v>2.045134402692497</v>
       </c>
       <c r="C4">
-        <v>0.0966672286187702</v>
+        <v>0.3977023179507739</v>
       </c>
       <c r="D4">
-        <v>0.05927756217918301</v>
+        <v>0.05006184029192084</v>
       </c>
       <c r="E4">
-        <v>0.05137524544900351</v>
+        <v>0.04478628763169867</v>
       </c>
       <c r="F4">
-        <v>0.9164731418461187</v>
+        <v>0.695283183446584</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.01126713555292222</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.01032524684368497</v>
       </c>
       <c r="J4">
-        <v>0.07477802097096742</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="K4">
-        <v>0.643133619267175</v>
+        <v>0.398689818477731</v>
       </c>
       <c r="L4">
-        <v>0.1194329733763908</v>
+        <v>0.07286144051339249</v>
       </c>
       <c r="M4">
-        <v>0.1704887016522036</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>1.292549918251728</v>
+        <v>0.1741824407117605</v>
       </c>
       <c r="O4">
-        <v>2.451462516073931</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>0.3673434205214292</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>1.804796394214293</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.7797097595698972</v>
+        <v>1.961890295973376</v>
       </c>
       <c r="C5">
-        <v>0.09592113070355168</v>
+        <v>0.3854232012481589</v>
       </c>
       <c r="D5">
-        <v>0.0577646861908292</v>
+        <v>0.04921224338910335</v>
       </c>
       <c r="E5">
-        <v>0.05125861588881264</v>
+        <v>0.04453983400245454</v>
       </c>
       <c r="F5">
-        <v>0.9138817823450651</v>
+        <v>0.6908353692238194</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.01203855252266585</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.0111470119262651</v>
       </c>
       <c r="J5">
-        <v>0.07520817872892316</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="K5">
-        <v>0.6165720776689483</v>
+        <v>0.4006271544567142</v>
       </c>
       <c r="L5">
-        <v>0.1168803588997775</v>
+        <v>0.07223152821736534</v>
       </c>
       <c r="M5">
-        <v>0.1647117148458754</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>1.305602213239278</v>
+        <v>0.1690080512734369</v>
       </c>
       <c r="O5">
-        <v>2.450093317160025</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>0.3528784191789924</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>1.795580077306852</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.7746097360736144</v>
+        <v>1.947962691361397</v>
       </c>
       <c r="C6">
-        <v>0.09579723262091022</v>
+        <v>0.3841698855849529</v>
       </c>
       <c r="D6">
-        <v>0.05751407117075047</v>
+        <v>0.04910036317912514</v>
       </c>
       <c r="E6">
-        <v>0.0512399225320106</v>
+        <v>0.04448526276462883</v>
       </c>
       <c r="F6">
-        <v>0.913470135426742</v>
+        <v>0.6893152291461391</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.01217505769904008</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.01139740029068559</v>
       </c>
       <c r="J6">
-        <v>0.07528042367647814</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="K6">
-        <v>0.6121634394268796</v>
+        <v>0.4004704550851272</v>
       </c>
       <c r="L6">
-        <v>0.1164579729671331</v>
+        <v>0.07213655564703991</v>
       </c>
       <c r="M6">
-        <v>0.1637539806268897</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>1.307787674742942</v>
+        <v>0.1683474169097963</v>
       </c>
       <c r="O6">
-        <v>2.449917997855323</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>0.3505878662199393</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>1.7916996760665</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.8100418934093625</v>
+        <v>2.043739309108901</v>
       </c>
       <c r="C7">
-        <v>0.09665716696775917</v>
+        <v>0.3996829347228754</v>
       </c>
       <c r="D7">
-        <v>0.05925711868156469</v>
+        <v>0.05012940764734708</v>
       </c>
       <c r="E7">
-        <v>0.05137362729085204</v>
+        <v>0.04474671371594585</v>
       </c>
       <c r="F7">
-        <v>0.9164369372065195</v>
+        <v>0.6930651128451828</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.01129003359341205</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>0.01061985504823593</v>
       </c>
       <c r="J7">
-        <v>0.07478376733230707</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="K7">
-        <v>0.6427752691998307</v>
+        <v>0.3973976402159494</v>
       </c>
       <c r="L7">
-        <v>0.1193984483774813</v>
+        <v>0.07288164150031839</v>
       </c>
       <c r="M7">
-        <v>0.170410687230202</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>1.29272472684185</v>
+        <v>0.1746533283857161</v>
       </c>
       <c r="O7">
-        <v>2.45144054382969</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>0.3674533095706494</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>1.798183673200313</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.9672758450712706</v>
+        <v>2.465828010700932</v>
       </c>
       <c r="C8">
-        <v>0.1004519244964186</v>
+        <v>0.4664254886548349</v>
       </c>
       <c r="D8">
-        <v>0.06703899258847201</v>
+        <v>0.05463778162799571</v>
       </c>
       <c r="E8">
-        <v>0.05206300708169209</v>
+        <v>0.04590242872190142</v>
       </c>
       <c r="F8">
-        <v>0.93231250850517</v>
+        <v>0.7130622507532962</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>0.007887682168659094</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>0.007476842330498279</v>
       </c>
       <c r="J8">
-        <v>0.07271193361705031</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="K8">
-        <v>0.7781930039706992</v>
+        <v>0.3859278904974062</v>
       </c>
       <c r="L8">
-        <v>0.1325966474907858</v>
+        <v>0.07607204132628098</v>
       </c>
       <c r="M8">
-        <v>0.2000230689736284</v>
+        <v>0</v>
       </c>
       <c r="N8">
-        <v>1.228927979472655</v>
+        <v>0.2021048913921462</v>
       </c>
       <c r="O8">
-        <v>2.465926195983144</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>0.4415735898310515</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>1.837133594101402</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.279577042073726</v>
+        <v>3.291948023274813</v>
       </c>
       <c r="C9">
-        <v>0.1079084327405084</v>
+        <v>0.594969849771843</v>
       </c>
       <c r="D9">
-        <v>0.08265921182596969</v>
+        <v>0.06351420653070505</v>
       </c>
       <c r="E9">
-        <v>0.05378804849303087</v>
+        <v>0.04812575374708628</v>
       </c>
       <c r="F9">
-        <v>0.9741999638631498</v>
+        <v>0.7615440221199989</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>0.003222231105578843</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>0.003130618123821982</v>
       </c>
       <c r="J9">
-        <v>0.0690893445185754</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="K9">
-        <v>1.045581948661379</v>
+        <v>0.3689280062384377</v>
       </c>
       <c r="L9">
-        <v>0.1593644224706878</v>
+        <v>0.08204140297922002</v>
       </c>
       <c r="M9">
-        <v>0.2591082085323357</v>
+        <v>0</v>
       </c>
       <c r="N9">
-        <v>1.113795088822682</v>
+        <v>0.2555916085910468</v>
       </c>
       <c r="O9">
-        <v>2.524327035724355</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>0.5865173893672377</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>1.94132440351288</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.512279025821812</v>
+        <v>3.901603337920335</v>
       </c>
       <c r="C10">
-        <v>0.1134118310251679</v>
+        <v>0.6964742072150898</v>
       </c>
       <c r="D10">
-        <v>0.09439217358585239</v>
+        <v>0.0692401564181111</v>
       </c>
       <c r="E10">
-        <v>0.05529912938972004</v>
+        <v>0.04926749182061041</v>
       </c>
       <c r="F10">
-        <v>1.012286087218342</v>
+        <v>0.7881006502226597</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>0.00145418407804998</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>0.001646513169760055</v>
       </c>
       <c r="J10">
-        <v>0.06670569885627842</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="K10">
-        <v>1.243812828014626</v>
+        <v>0.3528617476347087</v>
       </c>
       <c r="L10">
-        <v>0.1796600071677545</v>
+        <v>0.0874738279880436</v>
       </c>
       <c r="M10">
-        <v>0.3033037610021339</v>
+        <v>0</v>
       </c>
       <c r="N10">
-        <v>1.035644880248215</v>
+        <v>0.2877681817264062</v>
       </c>
       <c r="O10">
-        <v>2.587607226127574</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>0.6889631452424752</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>1.996015278862643</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.619046510365138</v>
+        <v>4.207382653164075</v>
       </c>
       <c r="C11">
-        <v>0.1159248174475636</v>
+        <v>0.7892620086778663</v>
       </c>
       <c r="D11">
-        <v>0.09979437697282378</v>
+        <v>0.06381178423654177</v>
       </c>
       <c r="E11">
-        <v>0.05604327569090728</v>
+        <v>0.04839699386985918</v>
       </c>
       <c r="F11">
-        <v>1.031377788952724</v>
+        <v>0.6989122048608323</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.01988908475181006</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>0.001867556008059879</v>
       </c>
       <c r="J11">
-        <v>0.06568387353453708</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="K11">
-        <v>1.334537245002764</v>
+        <v>0.303516606359068</v>
       </c>
       <c r="L11">
-        <v>0.1890507197199298</v>
+        <v>0.1056940001269169</v>
       </c>
       <c r="M11">
-        <v>0.3236196206022299</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>1.001574653851598</v>
+        <v>0.2382028164720964</v>
       </c>
       <c r="O11">
-        <v>2.621311161470885</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>0.6968743722446362</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>1.761675569942554</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.65962467100448</v>
+        <v>4.338245203304666</v>
       </c>
       <c r="C12">
-        <v>0.1168781240084869</v>
+        <v>0.8452284477565684</v>
       </c>
       <c r="D12">
-        <v>0.1018501261872444</v>
+        <v>0.05817033987655407</v>
       </c>
       <c r="E12">
-        <v>0.05633355673469254</v>
+        <v>0.0505938965968129</v>
       </c>
       <c r="F12">
-        <v>1.038877012773781</v>
+        <v>0.6249092586569134</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>0.05860689710812039</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>0.001803293017787588</v>
       </c>
       <c r="J12">
-        <v>0.06530612453043716</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="K12">
-        <v>1.368984692650741</v>
+        <v>0.2711119032901514</v>
       </c>
       <c r="L12">
-        <v>0.1926313088923308</v>
+        <v>0.1275092311850727</v>
       </c>
       <c r="M12">
-        <v>0.3313464879817971</v>
+        <v>0</v>
       </c>
       <c r="N12">
-        <v>0.9888937588097715</v>
+        <v>0.1934013341300229</v>
       </c>
       <c r="O12">
-        <v>2.634824810244737</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>0.6808646582570432</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>1.571415439727502</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.650878593387517</v>
+        <v>4.340307611226024</v>
       </c>
       <c r="C13">
-        <v>0.1166727314824101</v>
+        <v>0.878918690795075</v>
       </c>
       <c r="D13">
-        <v>0.1014069246181606</v>
+        <v>0.05218779077820557</v>
       </c>
       <c r="E13">
-        <v>0.05627065652560503</v>
+        <v>0.05511398589942473</v>
       </c>
       <c r="F13">
-        <v>1.037249670014518</v>
+        <v>0.5548143733817525</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>0.1145585648099683</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>0.001861127872007984</v>
       </c>
       <c r="J13">
-        <v>0.06538706722293774</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="K13">
-        <v>1.361561502405806</v>
+        <v>0.2475548989798959</v>
       </c>
       <c r="L13">
-        <v>0.1918590442456605</v>
+        <v>0.1530213494768233</v>
       </c>
       <c r="M13">
-        <v>0.3296808148213017</v>
+        <v>0</v>
       </c>
       <c r="N13">
-        <v>0.9916148680009531</v>
+        <v>0.1507745059126577</v>
       </c>
       <c r="O13">
-        <v>2.631880292679284</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>0.6461214677731846</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>1.393332956864157</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.622381841369076</v>
+        <v>4.283227544238287</v>
       </c>
       <c r="C14">
-        <v>0.116003210613961</v>
+        <v>0.8932083809567075</v>
       </c>
       <c r="D14">
-        <v>0.09996329889116851</v>
+        <v>0.0479409940776172</v>
       </c>
       <c r="E14">
-        <v>0.05606698520295161</v>
+        <v>0.05968165324995844</v>
       </c>
       <c r="F14">
-        <v>1.031989258070141</v>
+        <v>0.5078926135855184</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>0.1641217374693156</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>0.002060457361829471</v>
       </c>
       <c r="J14">
-        <v>0.06565261041217241</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="K14">
-        <v>1.337369332685284</v>
+        <v>0.2354079045675146</v>
       </c>
       <c r="L14">
-        <v>0.1893447946687488</v>
+        <v>0.1733669094990091</v>
       </c>
       <c r="M14">
-        <v>0.3242546194723062</v>
+        <v>0</v>
       </c>
       <c r="N14">
-        <v>1.000526917970364</v>
+        <v>0.1229408593640429</v>
       </c>
       <c r="O14">
-        <v>2.622407632745677</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>0.6135847277922082</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>1.274884097840342</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.604946500110998</v>
+        <v>4.24151196205213</v>
       </c>
       <c r="C15">
-        <v>0.1155933405961349</v>
+        <v>0.8925464762632203</v>
       </c>
       <c r="D15">
-        <v>0.09908036798991304</v>
+        <v>0.04682989265744197</v>
       </c>
       <c r="E15">
-        <v>0.05594334624086805</v>
+        <v>0.06087565050038357</v>
       </c>
       <c r="F15">
-        <v>1.028802696309</v>
+        <v>0.4963028807842917</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.1767465158315957</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>0.002270638183146545</v>
       </c>
       <c r="J15">
-        <v>0.06581646693449095</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="K15">
-        <v>1.322563330507137</v>
+        <v>0.2335815002560615</v>
       </c>
       <c r="L15">
-        <v>0.1878079938041282</v>
+        <v>0.1781482193723747</v>
       </c>
       <c r="M15">
-        <v>0.3209354087464291</v>
+        <v>0</v>
       </c>
       <c r="N15">
-        <v>1.006014796427074</v>
+        <v>0.1162074079350504</v>
       </c>
       <c r="O15">
-        <v>2.616704459377928</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>0.6019193082838044</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>1.245796279107111</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.505321241238789</v>
+        <v>3.976758634204543</v>
       </c>
       <c r="C16">
-        <v>0.1132478196446129</v>
+        <v>0.841803524458129</v>
       </c>
       <c r="D16">
-        <v>0.09404049269976156</v>
+        <v>0.04575769446607936</v>
       </c>
       <c r="E16">
-        <v>0.05525166725396247</v>
+        <v>0.05923114257681661</v>
       </c>
       <c r="F16">
-        <v>1.011075253645458</v>
+        <v>0.4981594451528011</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.1647161185638026</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>0.002919064393615223</v>
       </c>
       <c r="J16">
-        <v>0.06677375264811403</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="K16">
-        <v>1.23789591723758</v>
+        <v>0.2440007374001762</v>
       </c>
       <c r="L16">
-        <v>0.1790496346654677</v>
+        <v>0.1697289316578292</v>
       </c>
       <c r="M16">
-        <v>0.3019805997365594</v>
+        <v>0</v>
       </c>
       <c r="N16">
-        <v>1.037901904019998</v>
+        <v>0.1124738717350482</v>
       </c>
       <c r="O16">
-        <v>2.585507208500246</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>0.5659308597685921</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>1.25461513244268</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.444449061048971</v>
+        <v>3.804609686917047</v>
       </c>
       <c r="C17">
-        <v>0.1118115699219047</v>
+        <v>0.7955198053102777</v>
       </c>
       <c r="D17">
-        <v>0.09096580048326786</v>
+        <v>0.04714775619715894</v>
       </c>
       <c r="E17">
-        <v>0.05484210698101855</v>
+        <v>0.05531500314628346</v>
       </c>
       <c r="F17">
-        <v>1.000663215075306</v>
+        <v>0.5241103899306907</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.1274001694400084</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>0.003370363912106988</v>
       </c>
       <c r="J17">
-        <v>0.06737716850357778</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="K17">
-        <v>1.186104753466878</v>
+        <v>0.2581902088390038</v>
       </c>
       <c r="L17">
-        <v>0.1737184075979457</v>
+        <v>0.1519884650074275</v>
       </c>
       <c r="M17">
-        <v>0.2904088085805583</v>
+        <v>0</v>
       </c>
       <c r="N17">
-        <v>1.057848278473857</v>
+        <v>0.1237989109561752</v>
       </c>
       <c r="O17">
-        <v>2.567658324687784</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>0.5555493784487666</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>1.323415612018366</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.409521596692684</v>
+        <v>3.692689804792678</v>
       </c>
       <c r="C18">
-        <v>0.1109863462383913</v>
+        <v>0.7466297116509679</v>
       </c>
       <c r="D18">
-        <v>0.0892033736446507</v>
+        <v>0.05092650277595823</v>
       </c>
       <c r="E18">
-        <v>0.05461185934229285</v>
+        <v>0.0504635235040034</v>
       </c>
       <c r="F18">
-        <v>0.9948397295841929</v>
+        <v>0.5771290475521482</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.07473535252317731</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>0.003302485354922169</v>
       </c>
       <c r="J18">
-        <v>0.06773010779229516</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="K18">
-        <v>1.156366599019464</v>
+        <v>0.2798307912083686</v>
       </c>
       <c r="L18">
-        <v>0.1706667988370967</v>
+        <v>0.1275526395544802</v>
       </c>
       <c r="M18">
-        <v>0.2837726756879562</v>
+        <v>0</v>
       </c>
       <c r="N18">
-        <v>1.069459778212931</v>
+        <v>0.1515681631160177</v>
       </c>
       <c r="O18">
-        <v>2.557852204685162</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>0.5656230833499194</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>1.46083986693391</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.397709795853473</v>
+        <v>3.63688899217118</v>
       </c>
       <c r="C19">
-        <v>0.1107070792862572</v>
+        <v>0.7053002006680629</v>
       </c>
       <c r="D19">
-        <v>0.08860766457463853</v>
+        <v>0.05675410764984434</v>
       </c>
       <c r="E19">
-        <v>0.05453480556215418</v>
+        <v>0.0474052515485841</v>
       </c>
       <c r="F19">
-        <v>0.9928959174376715</v>
+        <v>0.6484164055030988</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.02924309796748759</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>0.003350528840530664</v>
       </c>
       <c r="J19">
-        <v>0.06785060915655272</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="K19">
-        <v>1.146306098670465</v>
+        <v>0.3074951131102743</v>
       </c>
       <c r="L19">
-        <v>0.1696360610155949</v>
+        <v>0.1050116924869933</v>
       </c>
       <c r="M19">
-        <v>0.2815290727435311</v>
+        <v>0</v>
       </c>
       <c r="N19">
-        <v>1.073414853068259</v>
+        <v>0.195258933532827</v>
       </c>
       <c r="O19">
-        <v>2.554609758207135</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>0.5920281624012986</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>1.642936283521038</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.450920134602484</v>
+        <v>3.740707259493661</v>
       </c>
       <c r="C20">
-        <v>0.1119643688825462</v>
+        <v>0.6768952950273217</v>
       </c>
       <c r="D20">
-        <v>0.09129247491770798</v>
+        <v>0.0679364109356797</v>
       </c>
       <c r="E20">
-        <v>0.05488515238986658</v>
+        <v>0.04885160187508375</v>
       </c>
       <c r="F20">
-        <v>1.001754382063851</v>
+        <v>0.7737869339977337</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>0.001821493499524429</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>0.002756395858970251</v>
       </c>
       <c r="J20">
-        <v>0.06731232483568306</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="K20">
-        <v>1.191612665394331</v>
+        <v>0.3528273126883015</v>
       </c>
       <c r="L20">
-        <v>0.1742843843787156</v>
+        <v>0.08623169896475957</v>
       </c>
       <c r="M20">
-        <v>0.2916385877623711</v>
+        <v>0</v>
       </c>
       <c r="N20">
-        <v>1.055710524834256</v>
+        <v>0.280666935560518</v>
       </c>
       <c r="O20">
-        <v>2.569510444862459</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>0.6628198024546563</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>1.95982095821293</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.630747882469137</v>
+        <v>4.203830337327304</v>
       </c>
       <c r="C21">
-        <v>0.1161998163803588</v>
+        <v>0.7466646702391699</v>
       </c>
       <c r="D21">
-        <v>0.1003870479003126</v>
+        <v>0.07382361802628168</v>
       </c>
       <c r="E21">
-        <v>0.05612657530244469</v>
+        <v>0.05039719759489802</v>
       </c>
       <c r="F21">
-        <v>1.033526921815195</v>
+        <v>0.8151294354257814</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>0.000563413344220498</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>0.001940810327119458</v>
       </c>
       <c r="J21">
-        <v>0.06557436271655348</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="K21">
-        <v>1.344472550201687</v>
+        <v>0.3499606992865303</v>
       </c>
       <c r="L21">
-        <v>0.190082610146213</v>
+        <v>0.0885887443544604</v>
       </c>
       <c r="M21">
-        <v>0.3258474824674451</v>
+        <v>0</v>
       </c>
       <c r="N21">
-        <v>0.9979031765826285</v>
+        <v>0.3174207282863932</v>
       </c>
       <c r="O21">
-        <v>2.62516924758674</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>0.7482929918025647</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>2.05659850921046</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.749144813938841</v>
+        <v>4.508798950856942</v>
       </c>
       <c r="C22">
-        <v>0.1189779702476201</v>
+        <v>0.7920825338547104</v>
       </c>
       <c r="D22">
-        <v>0.1063898403924952</v>
+        <v>0.07710551412045419</v>
       </c>
       <c r="E22">
-        <v>0.05698756400996707</v>
+        <v>0.05122742385286205</v>
       </c>
       <c r="F22">
-        <v>1.055871596385529</v>
+        <v>0.8397405967664184</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>0.0001684124571923462</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>0.001438331258536429</v>
       </c>
       <c r="J22">
-        <v>0.06449219846448351</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="K22">
-        <v>1.444918849691391</v>
+        <v>0.3475762894909593</v>
       </c>
       <c r="L22">
-        <v>0.2005515588683267</v>
+        <v>0.09064479049652263</v>
       </c>
       <c r="M22">
-        <v>0.3484030685741075</v>
+        <v>0</v>
       </c>
       <c r="N22">
-        <v>0.9614134894739585</v>
+        <v>0.3368235599340608</v>
       </c>
       <c r="O22">
-        <v>2.665943422145006</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>0.8015978518860507</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>2.115341430344216</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.685868789571231</v>
+        <v>4.346367631775649</v>
       </c>
       <c r="C23">
-        <v>0.1174941808360046</v>
+        <v>0.7651538508435749</v>
       </c>
       <c r="D23">
-        <v>0.1031803884066136</v>
+        <v>0.07525559571597995</v>
       </c>
       <c r="E23">
-        <v>0.0565233816793711</v>
+        <v>0.05082226697946624</v>
       </c>
       <c r="F23">
-        <v>1.043795869206804</v>
+        <v>0.8290159553809744</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>0.000347764117152316</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>0.001362155802373088</v>
       </c>
       <c r="J23">
-        <v>0.06506478566026708</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="K23">
-        <v>1.39125441722814</v>
+        <v>0.3502727049090666</v>
       </c>
       <c r="L23">
-        <v>0.1949502960081873</v>
+        <v>0.08949824150147023</v>
       </c>
       <c r="M23">
-        <v>0.3363454401323409</v>
+        <v>0</v>
       </c>
       <c r="N23">
-        <v>0.9807678981351255</v>
+        <v>0.3257990416384189</v>
       </c>
       <c r="O23">
-        <v>2.643763927082915</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>0.772772053693302</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>2.091220391512252</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.44799434932068</v>
+        <v>3.731140683387309</v>
       </c>
       <c r="C24">
-        <v>0.1118952869541019</v>
+        <v>0.6680120010514941</v>
       </c>
       <c r="D24">
-        <v>0.09114476909325475</v>
+        <v>0.06846203734207279</v>
       </c>
       <c r="E24">
-        <v>0.05486567534462949</v>
+        <v>0.04922133461892875</v>
       </c>
       <c r="F24">
-        <v>1.001260560382022</v>
+        <v>0.7862535916873057</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>0.001650881967437345</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>0.002239436179173104</v>
       </c>
       <c r="J24">
-        <v>0.067341621899077</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="K24">
-        <v>1.189122423297903</v>
+        <v>0.3591491371627988</v>
       </c>
       <c r="L24">
-        <v>0.1740284647196617</v>
+        <v>0.08521310189692777</v>
       </c>
       <c r="M24">
-        <v>0.2910825530017718</v>
+        <v>0</v>
       </c>
       <c r="N24">
-        <v>1.056676555116731</v>
+        <v>0.2853320112714073</v>
       </c>
       <c r="O24">
-        <v>2.568671685996748</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>0.6644077152039785</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>1.993507250908777</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.19458338381267</v>
+        <v>3.068065346422827</v>
       </c>
       <c r="C25">
-        <v>0.1058880709931316</v>
+        <v>0.5639805797731299</v>
       </c>
       <c r="D25">
-        <v>0.07839126141416131</v>
+        <v>0.06123605370706997</v>
       </c>
       <c r="E25">
-        <v>0.05327980918228192</v>
+        <v>0.04747343887130473</v>
       </c>
       <c r="F25">
-        <v>0.9616415666050315</v>
+        <v>0.7439468410266841</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>0.00426306663295184</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>0.004514890770374258</v>
       </c>
       <c r="J25">
-        <v>0.07002127198321695</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="K25">
-        <v>0.9729838553915897</v>
+        <v>0.3708597791677199</v>
       </c>
       <c r="L25">
-        <v>0.1520192779446461</v>
+        <v>0.08051488843193333</v>
       </c>
       <c r="M25">
-        <v>0.2429987995606737</v>
+        <v>0</v>
       </c>
       <c r="N25">
-        <v>1.143838282626888</v>
+        <v>0.2420354480824187</v>
       </c>
       <c r="O25">
-        <v>2.505108800067831</v>
+        <v>0.5478264912107917</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>1.899671860029713</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_41/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_41/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1277 +421,1427 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.580418484588847</v>
+        <v>2.584148777262783</v>
       </c>
       <c r="C2">
-        <v>0.4815344345608139</v>
+        <v>0.5011934359378358</v>
       </c>
       <c r="D2">
-        <v>0.05575847222149122</v>
+        <v>0.05861060643486127</v>
       </c>
       <c r="E2">
-        <v>0.0462570786689438</v>
+        <v>0.04610507372153583</v>
       </c>
       <c r="F2">
-        <v>0.7218562894814298</v>
+        <v>0.6714848139666003</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.007083661435539956</v>
+        <v>0.005666865210606942</v>
       </c>
       <c r="I2">
-        <v>0.006417112633685829</v>
+        <v>0.004507682186203787</v>
       </c>
       <c r="J2">
-        <v>0.0267246236506935</v>
+        <v>0.07607150459153801</v>
       </c>
       <c r="K2">
-        <v>0.3848580860293644</v>
+        <v>0.3433045616980728</v>
       </c>
       <c r="L2">
-        <v>0.07687370489015422</v>
+        <v>0.1595900119552791</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.1018939816538627</v>
       </c>
       <c r="N2">
-        <v>0.2088129041032545</v>
+        <v>0.07647185813781832</v>
       </c>
       <c r="O2">
-        <v>0.4612274471055287</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>0.2234775485359961</v>
       </c>
       <c r="Q2">
-        <v>1.857829186939426</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0.4667417916551813</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>1.702426443912543</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.248977614300202</v>
+        <v>2.252927943128668</v>
       </c>
       <c r="C3">
-        <v>0.429491541859079</v>
+        <v>0.4408277528964675</v>
       </c>
       <c r="D3">
-        <v>0.0522163538589453</v>
+        <v>0.05490837464526521</v>
       </c>
       <c r="E3">
-        <v>0.04535473048090588</v>
+        <v>0.04532002405394953</v>
       </c>
       <c r="F3">
-        <v>0.7049924191464285</v>
+        <v>0.6592640078800187</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.009526608179828852</v>
+        <v>0.007733289778991237</v>
       </c>
       <c r="I3">
-        <v>0.00867317726999195</v>
+        <v>0.006177733880211367</v>
       </c>
       <c r="J3">
-        <v>0.0267246236506935</v>
+        <v>0.07607150459153705</v>
       </c>
       <c r="K3">
-        <v>0.3931910259218867</v>
+        <v>0.3532048115772923</v>
       </c>
       <c r="L3">
-        <v>0.0744070115221227</v>
+        <v>0.165657125953043</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.1046729519967915</v>
       </c>
       <c r="N3">
-        <v>0.1873140678942917</v>
+        <v>0.07378140520426335</v>
       </c>
       <c r="O3">
-        <v>0.403058026061359</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>0.2005443880955013</v>
       </c>
       <c r="Q3">
-        <v>1.82377716483829</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0.407405116696836</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>1.681576924637156</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.045134402692497</v>
+        <v>2.049110052485162</v>
       </c>
       <c r="C4">
-        <v>0.3977023179507739</v>
+        <v>0.4040785180364423</v>
       </c>
       <c r="D4">
-        <v>0.05006184029192084</v>
+        <v>0.05266149849401103</v>
       </c>
       <c r="E4">
-        <v>0.04478628763169867</v>
+        <v>0.04482468187129762</v>
       </c>
       <c r="F4">
-        <v>0.695283183446584</v>
+        <v>0.652276925104232</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.01126713555292222</v>
+        <v>0.009213717145162496</v>
       </c>
       <c r="I4">
-        <v>0.01032524684368497</v>
+        <v>0.007429213420115932</v>
       </c>
       <c r="J4">
-        <v>0.0267246236506935</v>
+        <v>0.07607150459153784</v>
       </c>
       <c r="K4">
-        <v>0.398689818477731</v>
+        <v>0.3595899178656481</v>
       </c>
       <c r="L4">
-        <v>0.07286144051339249</v>
+        <v>0.1695330969438871</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.1069732878014529</v>
       </c>
       <c r="N4">
-        <v>0.1741824407117605</v>
+        <v>0.07210774077040938</v>
       </c>
       <c r="O4">
-        <v>0.3673434205214292</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>0.1865680849881173</v>
       </c>
       <c r="Q4">
-        <v>1.804796394214293</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0.3709738441399111</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>1.670296565870999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.961890295973376</v>
+        <v>1.965850802876048</v>
       </c>
       <c r="C5">
-        <v>0.3854232012481589</v>
+        <v>0.3898204544006774</v>
       </c>
       <c r="D5">
-        <v>0.04921224338910335</v>
+        <v>0.05177522987278849</v>
       </c>
       <c r="E5">
-        <v>0.04453983400245454</v>
+        <v>0.04460911318611838</v>
       </c>
       <c r="F5">
-        <v>0.6908353692238194</v>
+        <v>0.6489497654873446</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.01203855252266585</v>
+        <v>0.009871700101214877</v>
       </c>
       <c r="I5">
-        <v>0.0111470119262651</v>
+        <v>0.008089377401652165</v>
       </c>
       <c r="J5">
-        <v>0.0267246236506935</v>
+        <v>0.07607150459153798</v>
       </c>
       <c r="K5">
-        <v>0.4006271544567142</v>
+        <v>0.3619128218484047</v>
       </c>
       <c r="L5">
-        <v>0.07223152821736534</v>
+        <v>0.1709664348250435</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.1079765610770629</v>
       </c>
       <c r="N5">
-        <v>0.1690080512734369</v>
+        <v>0.07143041080018087</v>
       </c>
       <c r="O5">
-        <v>0.3528784191789924</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>0.1810556454731156</v>
       </c>
       <c r="Q5">
-        <v>1.795580077306852</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0.3562143213093947</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>1.664259020968359</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.947962691361397</v>
+        <v>1.951919155734572</v>
       </c>
       <c r="C6">
-        <v>0.3841698855849529</v>
+        <v>0.3882469067946772</v>
       </c>
       <c r="D6">
-        <v>0.04910036317912514</v>
+        <v>0.05165668077475871</v>
       </c>
       <c r="E6">
-        <v>0.04448526276462883</v>
+        <v>0.04456067685610687</v>
       </c>
       <c r="F6">
-        <v>0.6893152291461391</v>
+        <v>0.6476666583190251</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0.01217505769904008</v>
+        <v>0.009988409970509218</v>
       </c>
       <c r="I6">
-        <v>0.01139740029068559</v>
+        <v>0.008327905530782331</v>
       </c>
       <c r="J6">
-        <v>0.0267246236506935</v>
+        <v>0.07607150459142333</v>
       </c>
       <c r="K6">
-        <v>0.4004704550851272</v>
+        <v>0.3618720229522392</v>
       </c>
       <c r="L6">
-        <v>0.07213655564703991</v>
+        <v>0.1709832004130405</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.1080516617145815</v>
       </c>
       <c r="N6">
-        <v>0.1683474169097963</v>
+        <v>0.07133071252206413</v>
       </c>
       <c r="O6">
-        <v>0.3505878662199393</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>0.1803358396950685</v>
       </c>
       <c r="Q6">
-        <v>1.7916996760665</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0.3538714106405223</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>1.66107324406731</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.043739309108901</v>
+        <v>2.047715223163664</v>
       </c>
       <c r="C7">
-        <v>0.3996829347228754</v>
+        <v>0.4060536633577101</v>
       </c>
       <c r="D7">
-        <v>0.05012940764734708</v>
+        <v>0.05272679997744945</v>
       </c>
       <c r="E7">
-        <v>0.04474671371594585</v>
+        <v>0.04478833881197675</v>
       </c>
       <c r="F7">
-        <v>0.6930651128451828</v>
+        <v>0.6502224451114458</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.01129003359341205</v>
+        <v>0.009233686133090564</v>
       </c>
       <c r="I7">
-        <v>0.01061985504823593</v>
+        <v>0.007761783541587519</v>
       </c>
       <c r="J7">
-        <v>0.0267246236506935</v>
+        <v>0.07593571568737367</v>
       </c>
       <c r="K7">
-        <v>0.3973976402159494</v>
+        <v>0.3584532774578371</v>
       </c>
       <c r="L7">
-        <v>0.07288164150031839</v>
+        <v>0.1689634567364351</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.1066973418540575</v>
       </c>
       <c r="N7">
-        <v>0.1746533283857161</v>
+        <v>0.07213608202565958</v>
       </c>
       <c r="O7">
-        <v>0.3674533095706494</v>
+        <v>0</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>0.1870251068867717</v>
       </c>
       <c r="Q7">
-        <v>1.798183673200313</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0.3710702764281066</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>1.664213173815114</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.465828010700932</v>
+        <v>2.469661140049254</v>
       </c>
       <c r="C8">
-        <v>0.4664254886548349</v>
+        <v>0.4832300711643711</v>
       </c>
       <c r="D8">
-        <v>0.05463778162799571</v>
+        <v>0.05743143074756318</v>
       </c>
       <c r="E8">
-        <v>0.04590242872190142</v>
+        <v>0.04579485768415958</v>
       </c>
       <c r="F8">
-        <v>0.7130622507532962</v>
+        <v>0.6645313900215299</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.007887682168659094</v>
+        <v>0.006345619876727937</v>
       </c>
       <c r="I8">
-        <v>0.007476842330498279</v>
+        <v>0.00542463905640922</v>
       </c>
       <c r="J8">
-        <v>0.0267246236506935</v>
+        <v>0.07609806137284103</v>
       </c>
       <c r="K8">
-        <v>0.3859278904974062</v>
+        <v>0.3451517382639011</v>
       </c>
       <c r="L8">
-        <v>0.07607204132628098</v>
+        <v>0.1609621397467382</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.1022872247180526</v>
       </c>
       <c r="N8">
-        <v>0.2021048913921462</v>
+        <v>0.07560506617847196</v>
       </c>
       <c r="O8">
-        <v>0.4415735898310515</v>
+        <v>0</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>0.2162573997030037</v>
       </c>
       <c r="Q8">
-        <v>1.837133594101402</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0.4466732593375582</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>1.68706915247877</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.291948023274813</v>
+        <v>3.294521076374053</v>
       </c>
       <c r="C9">
-        <v>0.594969849771843</v>
+        <v>0.6333772212915676</v>
       </c>
       <c r="D9">
-        <v>0.06351420653070505</v>
+        <v>0.06674154613934746</v>
       </c>
       <c r="E9">
-        <v>0.04812575374708628</v>
+        <v>0.04772738124501164</v>
       </c>
       <c r="F9">
-        <v>0.7615440221199989</v>
+        <v>0.700513039812023</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.003222231105578843</v>
+        <v>0.002448241060951206</v>
       </c>
       <c r="I9">
-        <v>0.003130618123821982</v>
+        <v>0.002249316071879726</v>
       </c>
       <c r="J9">
-        <v>0.0267246236506935</v>
+        <v>0.07618838127587857</v>
       </c>
       <c r="K9">
-        <v>0.3689280062384377</v>
+        <v>0.323634353202884</v>
       </c>
       <c r="L9">
-        <v>0.08204140297922002</v>
+        <v>0.1473778683675828</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>0.0990489768912628</v>
       </c>
       <c r="N9">
-        <v>0.2555916085910468</v>
+        <v>0.08217492500959978</v>
       </c>
       <c r="O9">
-        <v>0.5865173893672377</v>
+        <v>0</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>0.2735323575715114</v>
       </c>
       <c r="Q9">
-        <v>1.94132440351288</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0.5945246507702038</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>1.755410871713678</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.901603337920335</v>
+        <v>3.902650070929838</v>
       </c>
       <c r="C10">
-        <v>0.6964742072150898</v>
+        <v>0.750660764945934</v>
       </c>
       <c r="D10">
-        <v>0.0692401564181111</v>
+        <v>0.07274179134959269</v>
       </c>
       <c r="E10">
-        <v>0.04926749182061041</v>
+        <v>0.04873965049419682</v>
       </c>
       <c r="F10">
-        <v>0.7881006502226597</v>
+        <v>0.7189541434254281</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.00145418407804998</v>
+        <v>0.001063101349715989</v>
       </c>
       <c r="I10">
-        <v>0.001646513169760055</v>
+        <v>0.001400501748384464</v>
       </c>
       <c r="J10">
-        <v>0.0267246236506935</v>
+        <v>0.07897366448939458</v>
       </c>
       <c r="K10">
-        <v>0.3528617476347087</v>
+        <v>0.3051803830536208</v>
       </c>
       <c r="L10">
-        <v>0.0874738279880436</v>
+        <v>0.1366314281516239</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>0.09792772117782178</v>
       </c>
       <c r="N10">
-        <v>0.2877681817264062</v>
+        <v>0.08830620386598653</v>
       </c>
       <c r="O10">
-        <v>0.6889631452424752</v>
+        <v>0</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>0.3081084589308745</v>
       </c>
       <c r="Q10">
-        <v>1.996015278862643</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0.698868398541002</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>1.78688426862513</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.207382653164075</v>
+        <v>4.208840602047815</v>
       </c>
       <c r="C11">
-        <v>0.7892620086778663</v>
+        <v>0.8424786914056881</v>
       </c>
       <c r="D11">
-        <v>0.06381178423654177</v>
+        <v>0.06684789494165955</v>
       </c>
       <c r="E11">
-        <v>0.04839699386985918</v>
+        <v>0.0484340501031415</v>
       </c>
       <c r="F11">
-        <v>0.6989122048608323</v>
+        <v>0.6401545421970027</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.01988908475181006</v>
+        <v>0.01954098926049141</v>
       </c>
       <c r="I11">
-        <v>0.001867556008059879</v>
+        <v>0.001875247451917694</v>
       </c>
       <c r="J11">
-        <v>0.0267246236506935</v>
+        <v>0.09407249181950306</v>
       </c>
       <c r="K11">
-        <v>0.303516606359068</v>
+        <v>0.2650156733251166</v>
       </c>
       <c r="L11">
-        <v>0.1056940001269169</v>
+        <v>0.1213674770261726</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>0.08434304349678179</v>
       </c>
       <c r="N11">
-        <v>0.2382028164720964</v>
+        <v>0.1083935242861855</v>
       </c>
       <c r="O11">
-        <v>0.6968743722446362</v>
+        <v>0</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>0.2550744085570216</v>
       </c>
       <c r="Q11">
-        <v>1.761675569942554</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0.7058894085830971</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>1.584211340222197</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.338245203304666</v>
+        <v>4.340463310822827</v>
       </c>
       <c r="C12">
-        <v>0.8452284477565684</v>
+        <v>0.8932967670349399</v>
       </c>
       <c r="D12">
-        <v>0.05817033987655407</v>
+        <v>0.06078503927370349</v>
       </c>
       <c r="E12">
-        <v>0.0505938965968129</v>
+        <v>0.05102202513117682</v>
       </c>
       <c r="F12">
-        <v>0.6249092586569134</v>
+        <v>0.5756652707148291</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.05860689710812039</v>
+        <v>0.05825457934555089</v>
       </c>
       <c r="I12">
-        <v>0.001803293017787588</v>
+        <v>0.001842246236792633</v>
       </c>
       <c r="J12">
-        <v>0.0267246236506935</v>
+        <v>0.1054405423656988</v>
       </c>
       <c r="K12">
-        <v>0.2711119032901514</v>
+        <v>0.239695813399921</v>
       </c>
       <c r="L12">
-        <v>0.1275092311850727</v>
+        <v>0.1127983985014174</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>0.07442570203782317</v>
       </c>
       <c r="N12">
-        <v>0.1934013341300229</v>
+        <v>0.1312097957079743</v>
       </c>
       <c r="O12">
-        <v>0.6808646582570432</v>
+        <v>0</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>0.2071561348886632</v>
       </c>
       <c r="Q12">
-        <v>1.571415439727502</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0.6887478465229577</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>1.422590535536216</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.340307611226024</v>
+        <v>4.343634922449326</v>
       </c>
       <c r="C13">
-        <v>0.878918690795075</v>
+        <v>0.9183828932667666</v>
       </c>
       <c r="D13">
-        <v>0.05218779077820557</v>
+        <v>0.05439695962118662</v>
       </c>
       <c r="E13">
-        <v>0.05511398589942473</v>
+        <v>0.05580577851379331</v>
       </c>
       <c r="F13">
-        <v>0.5548143733817525</v>
+        <v>0.5150944117469649</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.1145585648099683</v>
+        <v>0.1141613579955418</v>
       </c>
       <c r="I13">
-        <v>0.001861127872007984</v>
+        <v>0.001840234179169897</v>
       </c>
       <c r="J13">
-        <v>0.02672462365057982</v>
+        <v>0.102658464312043</v>
       </c>
       <c r="K13">
-        <v>0.2475548989798959</v>
+        <v>0.2221987278218283</v>
       </c>
       <c r="L13">
-        <v>0.1530213494768233</v>
+        <v>0.1074901019645669</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>0.0663842203194811</v>
       </c>
       <c r="N13">
-        <v>0.1507745059126577</v>
+        <v>0.1570622232039725</v>
       </c>
       <c r="O13">
-        <v>0.6461214677731846</v>
+        <v>0</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>0.1615723667672455</v>
       </c>
       <c r="Q13">
-        <v>1.393332956864157</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0.6526202245034654</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>1.273012244982908</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.283227544238287</v>
+        <v>4.287475879668648</v>
       </c>
       <c r="C14">
-        <v>0.8932083809567075</v>
+        <v>0.9250191229475604</v>
       </c>
       <c r="D14">
-        <v>0.0479409940776172</v>
+        <v>0.04988314967543772</v>
       </c>
       <c r="E14">
-        <v>0.05968165324995844</v>
+        <v>0.06047568159201688</v>
       </c>
       <c r="F14">
-        <v>0.5078926135855184</v>
+        <v>0.4746509234204765</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0.1641217374693156</v>
+        <v>0.1636735733470545</v>
       </c>
       <c r="I14">
-        <v>0.002060457361829471</v>
+        <v>0.001967923863097631</v>
       </c>
       <c r="J14">
-        <v>0.02672462365057982</v>
+        <v>0.09486545036309479</v>
       </c>
       <c r="K14">
-        <v>0.2354079045675146</v>
+        <v>0.2136492818528826</v>
       </c>
       <c r="L14">
-        <v>0.1733669094990091</v>
+        <v>0.1050747382848951</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>0.06190634338790524</v>
       </c>
       <c r="N14">
-        <v>0.1229408593640429</v>
+        <v>0.1772616894683878</v>
       </c>
       <c r="O14">
-        <v>0.6135847277922082</v>
+        <v>0</v>
       </c>
       <c r="P14">
-        <v>0</v>
+        <v>0.1318353075314818</v>
       </c>
       <c r="Q14">
-        <v>1.274884097840342</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0.6190084597584757</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>1.173901244105949</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.24151196205213</v>
+        <v>4.24604702081831</v>
       </c>
       <c r="C15">
-        <v>0.8925464762632203</v>
+        <v>0.9218729187086865</v>
       </c>
       <c r="D15">
-        <v>0.04682989265744197</v>
+        <v>0.04870781118798462</v>
       </c>
       <c r="E15">
-        <v>0.06087565050038357</v>
+        <v>0.06167836925649794</v>
       </c>
       <c r="F15">
-        <v>0.4963028807842917</v>
+        <v>0.4647387475136071</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1767465158315957</v>
+        <v>0.1762717316893401</v>
       </c>
       <c r="I15">
-        <v>0.002270638183146545</v>
+        <v>0.002159459022249344</v>
       </c>
       <c r="J15">
-        <v>0.02672462365057982</v>
+        <v>0.09097538657407966</v>
       </c>
       <c r="K15">
-        <v>0.2335815002560615</v>
+        <v>0.2126050388998175</v>
       </c>
       <c r="L15">
-        <v>0.1781482193723747</v>
+        <v>0.1048274722211184</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>0.06110628076462987</v>
       </c>
       <c r="N15">
-        <v>0.1162074079350504</v>
+        <v>0.1819091758690234</v>
       </c>
       <c r="O15">
-        <v>0.6019193082838044</v>
+        <v>0</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>0.1246434440136071</v>
       </c>
       <c r="Q15">
-        <v>1.245796279107111</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0.6070260328584567</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>1.149802016946339</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.976758634204543</v>
+        <v>3.98179975242806</v>
       </c>
       <c r="C16">
-        <v>0.841803524458129</v>
+        <v>0.8660405712478223</v>
       </c>
       <c r="D16">
-        <v>0.04575769446607936</v>
+        <v>0.04762451548208091</v>
       </c>
       <c r="E16">
-        <v>0.05923114257681661</v>
+        <v>0.05997189805961867</v>
       </c>
       <c r="F16">
-        <v>0.4981594451528011</v>
+        <v>0.467696667209033</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1647161185638026</v>
+        <v>0.164085289974949</v>
       </c>
       <c r="I16">
-        <v>0.002919064393615223</v>
+        <v>0.002601231703248885</v>
       </c>
       <c r="J16">
-        <v>0.02672462365057982</v>
+        <v>0.07852597926787475</v>
       </c>
       <c r="K16">
-        <v>0.2440007374001762</v>
+        <v>0.2224464792741392</v>
       </c>
       <c r="L16">
-        <v>0.1697289316578292</v>
+        <v>0.1081666547022038</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>0.06386823073415293</v>
       </c>
       <c r="N16">
-        <v>0.1124738717350482</v>
+        <v>0.1729113793468144</v>
       </c>
       <c r="O16">
-        <v>0.5659308597685921</v>
+        <v>0</v>
       </c>
       <c r="P16">
-        <v>0</v>
+        <v>0.1207100926564237</v>
       </c>
       <c r="Q16">
-        <v>1.25461513244268</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0.5705485361259619</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>1.161586237287864</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.804609686917047</v>
+        <v>3.809524945197211</v>
       </c>
       <c r="C17">
-        <v>0.7955198053102777</v>
+        <v>0.8200247198761872</v>
       </c>
       <c r="D17">
-        <v>0.04714775619715894</v>
+        <v>0.04913955335030451</v>
       </c>
       <c r="E17">
-        <v>0.05531500314628346</v>
+        <v>0.05597864488668414</v>
       </c>
       <c r="F17">
-        <v>0.5241103899306907</v>
+        <v>0.4912425292270299</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1274001694400084</v>
+        <v>0.126671416508529</v>
       </c>
       <c r="I17">
-        <v>0.003370363912106988</v>
+        <v>0.002928204327148798</v>
       </c>
       <c r="J17">
-        <v>0.02672462365057982</v>
+        <v>0.07630534183234428</v>
       </c>
       <c r="K17">
-        <v>0.2581902088390038</v>
+        <v>0.2344733940537225</v>
       </c>
       <c r="L17">
-        <v>0.1519884650074275</v>
+        <v>0.112368789332149</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>0.06806545845506839</v>
       </c>
       <c r="N17">
-        <v>0.1237989109561752</v>
+        <v>0.1548913044212199</v>
       </c>
       <c r="O17">
-        <v>0.5555493784487666</v>
+        <v>0</v>
       </c>
       <c r="P17">
-        <v>0</v>
+        <v>0.1328105729439883</v>
       </c>
       <c r="Q17">
-        <v>1.323415612018366</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0.560351722545029</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>1.222940075814734</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.692689804792678</v>
+        <v>3.696986753561532</v>
       </c>
       <c r="C18">
-        <v>0.7466297116509679</v>
+        <v>0.7756395133700664</v>
       </c>
       <c r="D18">
-        <v>0.05092650277595823</v>
+        <v>0.05319116386498735</v>
       </c>
       <c r="E18">
-        <v>0.0504635235040034</v>
+        <v>0.05097402960332698</v>
       </c>
       <c r="F18">
-        <v>0.5771290475521482</v>
+        <v>0.5381033310944119</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.07473535252317731</v>
+        <v>0.07397419589565146</v>
       </c>
       <c r="I18">
-        <v>0.003302485354922169</v>
+        <v>0.002762803894586163</v>
       </c>
       <c r="J18">
-        <v>0.02672462365057982</v>
+        <v>0.0759585914630927</v>
       </c>
       <c r="K18">
-        <v>0.2798307912083686</v>
+        <v>0.2518113792655114</v>
       </c>
       <c r="L18">
-        <v>0.1275526395544802</v>
+        <v>0.118713895423924</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>0.07446263406941256</v>
       </c>
       <c r="N18">
-        <v>0.1515681631160177</v>
+        <v>0.1302000433232067</v>
       </c>
       <c r="O18">
-        <v>0.5656230833499194</v>
+        <v>0</v>
       </c>
       <c r="P18">
-        <v>0</v>
+        <v>0.162453225149946</v>
       </c>
       <c r="Q18">
-        <v>1.46083986693391</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0.5712307107349233</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>1.341709372249838</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.63688899217118</v>
+        <v>3.640257859123608</v>
       </c>
       <c r="C19">
-        <v>0.7053002006680629</v>
+        <v>0.7413592058108804</v>
       </c>
       <c r="D19">
-        <v>0.05675410764984434</v>
+        <v>0.05941821760313815</v>
       </c>
       <c r="E19">
-        <v>0.0474052515485841</v>
+        <v>0.04762418513969013</v>
       </c>
       <c r="F19">
-        <v>0.6484164055030988</v>
+        <v>0.6001932768114386</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.02924309796748759</v>
+        <v>0.02852684278694539</v>
       </c>
       <c r="I19">
-        <v>0.003350528840530664</v>
+        <v>0.002860323842248214</v>
       </c>
       <c r="J19">
-        <v>0.02672462365057982</v>
+        <v>0.07592634768449891</v>
       </c>
       <c r="K19">
-        <v>0.3074951131102743</v>
+        <v>0.2732258892512522</v>
       </c>
       <c r="L19">
-        <v>0.1050116924869933</v>
+        <v>0.1266724737735885</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>0.08255268311059183</v>
       </c>
       <c r="N19">
-        <v>0.195258933532827</v>
+        <v>0.1071156373425914</v>
       </c>
       <c r="O19">
-        <v>0.5920281624012986</v>
+        <v>0</v>
       </c>
       <c r="P19">
-        <v>0</v>
+        <v>0.2090605259994334</v>
       </c>
       <c r="Q19">
-        <v>1.642936283521038</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0.5988882583836244</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>1.496175366716045</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.740707259493661</v>
+        <v>3.742236485198532</v>
       </c>
       <c r="C20">
-        <v>0.6768952950273217</v>
+        <v>0.7270318158035707</v>
       </c>
       <c r="D20">
-        <v>0.0679364109356797</v>
+        <v>0.07135810564106748</v>
       </c>
       <c r="E20">
-        <v>0.04885160187508375</v>
+        <v>0.04837168628841804</v>
       </c>
       <c r="F20">
-        <v>0.7737869339977337</v>
+        <v>0.7074508618272475</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0.001821493499524429</v>
+        <v>0.001338397980679584</v>
       </c>
       <c r="I20">
-        <v>0.002756395858970251</v>
+        <v>0.002512128586237949</v>
       </c>
       <c r="J20">
-        <v>0.02672462365057982</v>
+        <v>0.07642603823835614</v>
       </c>
       <c r="K20">
-        <v>0.3528273126883015</v>
+        <v>0.3064585330272536</v>
       </c>
       <c r="L20">
-        <v>0.08623169896475957</v>
+        <v>0.138130615358433</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>0.0966905986160782</v>
       </c>
       <c r="N20">
-        <v>0.280666935560518</v>
+        <v>0.08692485139265571</v>
       </c>
       <c r="O20">
-        <v>0.6628198024546563</v>
+        <v>0</v>
       </c>
       <c r="P20">
-        <v>0</v>
+        <v>0.3003317459271955</v>
       </c>
       <c r="Q20">
-        <v>1.95982095821293</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0.6721932948495848</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>1.75901787470886</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.203830337327304</v>
+        <v>4.203685406007423</v>
       </c>
       <c r="C21">
-        <v>0.7466646702391699</v>
+        <v>0.8105403129582385</v>
       </c>
       <c r="D21">
-        <v>0.07382361802628168</v>
+        <v>0.0775733956815472</v>
       </c>
       <c r="E21">
-        <v>0.05039719759489802</v>
+        <v>0.0496960414344767</v>
       </c>
       <c r="F21">
-        <v>0.8151294354257814</v>
+        <v>0.7396790598010483</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0.000563413344220498</v>
+        <v>0.0003387713104332502</v>
       </c>
       <c r="I21">
-        <v>0.001940810327119458</v>
+        <v>0.002084003267150081</v>
       </c>
       <c r="J21">
-        <v>0.02672462365057982</v>
+        <v>0.1039450029752089</v>
       </c>
       <c r="K21">
-        <v>0.3499606992865303</v>
+        <v>0.2996417110753846</v>
       </c>
       <c r="L21">
-        <v>0.0885887443544604</v>
+        <v>0.1326450634882939</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>0.09939703492253926</v>
       </c>
       <c r="N21">
-        <v>0.3174207282863932</v>
+        <v>0.08951458287003433</v>
       </c>
       <c r="O21">
-        <v>0.7482929918025647</v>
+        <v>0</v>
       </c>
       <c r="P21">
-        <v>0</v>
+        <v>0.3398343179216425</v>
       </c>
       <c r="Q21">
-        <v>2.05659850921046</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0.7594178477822382</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>1.829263047367846</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.508798950856942</v>
+        <v>4.50743450269664</v>
       </c>
       <c r="C22">
-        <v>0.7920825338547104</v>
+        <v>0.864535089497906</v>
       </c>
       <c r="D22">
-        <v>0.07710551412045419</v>
+        <v>0.08103975034989475</v>
       </c>
       <c r="E22">
-        <v>0.05122742385286205</v>
+        <v>0.0504156394702191</v>
       </c>
       <c r="F22">
-        <v>0.8397405967664184</v>
+        <v>0.758775385176726</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0.0001684124571923462</v>
+        <v>6.867415560440904E-05</v>
       </c>
       <c r="I22">
-        <v>0.001438331258536429</v>
+        <v>0.001711843233025867</v>
       </c>
       <c r="J22">
-        <v>0.02672462365057982</v>
+        <v>0.1466045079828149</v>
       </c>
       <c r="K22">
-        <v>0.3475762894909593</v>
+        <v>0.2949345903228107</v>
       </c>
       <c r="L22">
-        <v>0.09064479049652263</v>
+        <v>0.1289204376838722</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>0.1015694289359246</v>
       </c>
       <c r="N22">
-        <v>0.3368235599340608</v>
+        <v>0.09181252298855824</v>
       </c>
       <c r="O22">
-        <v>0.8015978518860507</v>
+        <v>0</v>
       </c>
       <c r="P22">
-        <v>0</v>
+        <v>0.3607899129326597</v>
       </c>
       <c r="Q22">
-        <v>2.115341430344216</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0.8137639093174229</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>1.871880495074066</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.346367631775649</v>
+        <v>4.345663027148873</v>
       </c>
       <c r="C23">
-        <v>0.7651538508435749</v>
+        <v>0.8329338022191166</v>
       </c>
       <c r="D23">
-        <v>0.07525559571597995</v>
+        <v>0.07909225869119041</v>
       </c>
       <c r="E23">
-        <v>0.05082226697946624</v>
+        <v>0.05006465315076047</v>
       </c>
       <c r="F23">
-        <v>0.8290159553809744</v>
+        <v>0.7507802230002696</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.000347764117152316</v>
+        <v>0.0001854799284011222</v>
       </c>
       <c r="I23">
-        <v>0.001362155802373088</v>
+        <v>0.001511164591516234</v>
       </c>
       <c r="J23">
-        <v>0.02672462365057982</v>
+        <v>0.1149997787806356</v>
       </c>
       <c r="K23">
-        <v>0.3502727049090666</v>
+        <v>0.2986312492289791</v>
       </c>
       <c r="L23">
-        <v>0.08949824150147023</v>
+        <v>0.1312941756210382</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>0.1008747939232038</v>
       </c>
       <c r="N23">
-        <v>0.3257990416384189</v>
+        <v>0.09051842106491037</v>
       </c>
       <c r="O23">
-        <v>0.772772053693302</v>
+        <v>0</v>
       </c>
       <c r="P23">
-        <v>0</v>
+        <v>0.3489386378496562</v>
       </c>
       <c r="Q23">
-        <v>2.091220391512252</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0.7843948640495526</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>1.855651631842022</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.731140683387309</v>
+        <v>3.732572170659182</v>
       </c>
       <c r="C24">
-        <v>0.6680120010514941</v>
+        <v>0.7185336882976117</v>
       </c>
       <c r="D24">
-        <v>0.06846203734207279</v>
+        <v>0.07193599012304475</v>
       </c>
       <c r="E24">
-        <v>0.04922133461892875</v>
+        <v>0.04867688942006265</v>
       </c>
       <c r="F24">
-        <v>0.7862535916873057</v>
+        <v>0.7184279799948712</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0.001650881967437345</v>
+        <v>0.001176336695670743</v>
       </c>
       <c r="I24">
-        <v>0.002239436179173104</v>
+        <v>0.001899952062036192</v>
       </c>
       <c r="J24">
-        <v>0.02672462365057982</v>
+        <v>0.07636882555361169</v>
       </c>
       <c r="K24">
-        <v>0.3591491371627988</v>
+        <v>0.3115255172606801</v>
       </c>
       <c r="L24">
-        <v>0.08521310189692777</v>
+        <v>0.1400069142517264</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>0.09860454909840044</v>
       </c>
       <c r="N24">
-        <v>0.2853320112714073</v>
+        <v>0.08571988632381178</v>
       </c>
       <c r="O24">
-        <v>0.6644077152039785</v>
+        <v>0</v>
       </c>
       <c r="P24">
-        <v>0</v>
+        <v>0.3053941513306739</v>
       </c>
       <c r="Q24">
-        <v>1.993507250908777</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0.6739267315718394</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>1.788119240065498</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.068065346422827</v>
+        <v>3.071106833308022</v>
       </c>
       <c r="C25">
-        <v>0.5639805797731299</v>
+        <v>0.5965017601457419</v>
       </c>
       <c r="D25">
-        <v>0.06123605370706997</v>
+        <v>0.06433886864996197</v>
       </c>
       <c r="E25">
-        <v>0.04747343887130473</v>
+        <v>0.04715953929924699</v>
       </c>
       <c r="F25">
-        <v>0.7439468410266841</v>
+        <v>0.6867303518192927</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0.00426306663295184</v>
+        <v>0.003307459390214762</v>
       </c>
       <c r="I25">
-        <v>0.004514890770374258</v>
+        <v>0.003435506318343329</v>
       </c>
       <c r="J25">
-        <v>0.02672462365057982</v>
+        <v>0.07595196022662787</v>
       </c>
       <c r="K25">
-        <v>0.3708597791677199</v>
+        <v>0.3271922952130701</v>
       </c>
       <c r="L25">
-        <v>0.08051488843193333</v>
+        <v>0.1501253341887523</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>0.09871217940847643</v>
       </c>
       <c r="N25">
-        <v>0.2420354480824187</v>
+        <v>0.08050059825703393</v>
       </c>
       <c r="O25">
-        <v>0.5478264912107917</v>
+        <v>0</v>
       </c>
       <c r="P25">
-        <v>0</v>
+        <v>0.258910558211312</v>
       </c>
       <c r="Q25">
-        <v>1.899671860029713</v>
+        <v>0.5550345322255197</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>1.724872249615657</v>
       </c>
     </row>
   </sheetData>
